--- a/jop2_debug.xlsx
+++ b/jop2_debug.xlsx
@@ -8,42 +8,43 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seo/Documents/GitHub/jop_practice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F640BA48-6894-CF46-A079-F67C6FCBA758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5DBA306-AB21-374F-9A7D-BC2C601585C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" firstSheet="19" activeTab="26" xr2:uid="{72654644-330E-6241-8B3F-5340056A9D63}"/>
+    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" firstSheet="17" activeTab="27" xr2:uid="{72654644-330E-6241-8B3F-5340056A9D63}"/>
   </bookViews>
   <sheets>
     <sheet name="stack" sheetId="1" r:id="rId1"/>
     <sheet name="stack (2)" sheetId="3" r:id="rId2"/>
     <sheet name="stack (3)" sheetId="5" r:id="rId3"/>
-    <sheet name="gadget_populate+4" sheetId="6" r:id="rId4"/>
-    <sheet name="mov_x16_x2__br_x3" sheetId="7" r:id="rId5"/>
-    <sheet name="gadget_populate" sheetId="8" r:id="rId6"/>
-    <sheet name="mov_x15_x2__br_x3" sheetId="10" r:id="rId7"/>
-    <sheet name="mov_x9_x15__br_x16" sheetId="11" r:id="rId8"/>
-    <sheet name="gadget_populate_2" sheetId="12" r:id="rId9"/>
-    <sheet name="mov_x16_x2__br_x3_2" sheetId="13" r:id="rId10"/>
-    <sheet name="gadget_populate_3" sheetId="14" r:id="rId11"/>
-    <sheet name="mov_x14_x2__br_x3" sheetId="15" r:id="rId12"/>
-    <sheet name="mov_x10_x14__br_x16" sheetId="16" r:id="rId13"/>
-    <sheet name="gadget_populate_4" sheetId="17" r:id="rId14"/>
-    <sheet name="mov_x7_x8__br_x10" sheetId="18" r:id="rId15"/>
-    <sheet name="mov_x1_x2__br_x3" sheetId="19" r:id="rId16"/>
-    <sheet name="gadget_populate_5" sheetId="20" r:id="rId17"/>
-    <sheet name="mov_x16_x2__br_x3_3" sheetId="21" r:id="rId18"/>
-    <sheet name="gadget_populate_6" sheetId="22" r:id="rId19"/>
-    <sheet name="mov_x14_x2__br_x3_2" sheetId="23" r:id="rId20"/>
-    <sheet name="mov_x10_x14__br_x16_2" sheetId="24" r:id="rId21"/>
-    <sheet name="gadget_populate_7" sheetId="25" r:id="rId22"/>
-    <sheet name="mov_x16_x2__br_x3_4" sheetId="26" r:id="rId23"/>
-    <sheet name="gadget_populate_8" sheetId="27" r:id="rId24"/>
-    <sheet name="mov_x14_x2__br_x3_3" sheetId="28" r:id="rId25"/>
-    <sheet name="mov_x13_x14__br_x16" sheetId="29" r:id="rId26"/>
-    <sheet name="gadget_populate_9" sheetId="30" r:id="rId27"/>
-    <sheet name="mov_x4_x8__br_x10" sheetId="31" r:id="rId28"/>
-    <sheet name="mov_x1_x9__br_x13" sheetId="32" r:id="rId29"/>
-    <sheet name="my_page" sheetId="4" r:id="rId30"/>
-    <sheet name="my_page (2)" sheetId="9" r:id="rId31"/>
+    <sheet name="my_page (3)" sheetId="33" r:id="rId4"/>
+    <sheet name="gadget_populate+4" sheetId="6" r:id="rId5"/>
+    <sheet name="mov_x16_x2__br_x3" sheetId="7" r:id="rId6"/>
+    <sheet name="gadget_populate" sheetId="8" r:id="rId7"/>
+    <sheet name="mov_x15_x2__br_x3" sheetId="10" r:id="rId8"/>
+    <sheet name="mov_x9_x15__br_x16" sheetId="11" r:id="rId9"/>
+    <sheet name="gadget_populate_2" sheetId="12" r:id="rId10"/>
+    <sheet name="mov_x16_x2__br_x3_2" sheetId="13" r:id="rId11"/>
+    <sheet name="gadget_populate_3" sheetId="14" r:id="rId12"/>
+    <sheet name="mov_x14_x2__br_x3" sheetId="15" r:id="rId13"/>
+    <sheet name="mov_x10_x14__br_x16" sheetId="16" r:id="rId14"/>
+    <sheet name="gadget_populate_4" sheetId="17" r:id="rId15"/>
+    <sheet name="mov_x7_x8__br_x10" sheetId="18" r:id="rId16"/>
+    <sheet name="mov_x1_x2__br_x3" sheetId="19" r:id="rId17"/>
+    <sheet name="gadget_populate_5" sheetId="20" r:id="rId18"/>
+    <sheet name="mov_x16_x2__br_x3_3" sheetId="21" r:id="rId19"/>
+    <sheet name="gadget_populate_6" sheetId="22" r:id="rId20"/>
+    <sheet name="mov_x14_x2__br_x3_2" sheetId="23" r:id="rId21"/>
+    <sheet name="mov_x10_x14__br_x16_2" sheetId="24" r:id="rId22"/>
+    <sheet name="gadget_populate_7" sheetId="25" r:id="rId23"/>
+    <sheet name="mov_x16_x2__br_x3_4" sheetId="26" r:id="rId24"/>
+    <sheet name="gadget_populate_8" sheetId="27" r:id="rId25"/>
+    <sheet name="mov_x14_x2__br_x3_3" sheetId="28" r:id="rId26"/>
+    <sheet name="mov_x13_x14__br_x16" sheetId="29" r:id="rId27"/>
+    <sheet name="gadget_populate_9" sheetId="30" r:id="rId28"/>
+    <sheet name="mov_x4_x8__br_x10" sheetId="31" r:id="rId29"/>
+    <sheet name="mov_x1_x9__br_x13" sheetId="32" r:id="rId30"/>
+    <sheet name="my_page" sheetId="4" r:id="rId31"/>
+    <sheet name="my_page (2)" sheetId="9" r:id="rId32"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4186" uniqueCount="813">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4747" uniqueCount="863">
   <si>
     <t>__text:0000000100003D58                 BL              _my_call6</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2652,12 +2653,231 @@
     <t>__text:000000010000332C                 BR              X13</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(lldb) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>x/512a 0x000000015880a200 --force</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ← my_page + 0x800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">uint64_t ret2 = my_call6(gadget_prologue, my_page, STORED_RET, 0, 0, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>mov_x16_x2__br_x3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, x5, x6);</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>write64(my_page + 0x100, 0);</t>
+  </si>
+  <si>
+    <t>write64(my_page + 0x110, my_page + 0x800);</t>
+  </si>
+  <si>
+    <t>write64(my_page + 0x118, gadget_populate);</t>
+  </si>
+  <si>
+    <t>write64(my_page + 0x120, gadget_populate);</t>
+  </si>
+  <si>
+    <t>0x15880a318: 0x0000000100003284 jop2`gadget_populate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">__text:00000001000032EC                 MOV             </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>X16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, X2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>write64(my_page + 0x800, mov_x15_x2__br_x3);</t>
+  </si>
+  <si>
+    <t>write64(my_page + 0x810, my_page + 0x840);</t>
+  </si>
+  <si>
+    <t>write64(my_page + 0x818, x1);</t>
+  </si>
+  <si>
+    <t>write64(my_page + 0x820, mov_x9_x15__br_x16);</t>
+  </si>
+  <si>
+    <t>write64(my_page + 0x840, mov_x16_x2__br_x3);</t>
+  </si>
+  <si>
+    <t>write64(my_page + 0x850, my_page + 0x880);</t>
+  </si>
+  <si>
+    <t>write64(my_page + 0x858, gadget_populate);</t>
+  </si>
+  <si>
+    <t>write64(my_page + 0x860, gadget_populate);</t>
+  </si>
+  <si>
+    <t>write64(my_page + 0x880, mov_x14_x2__br_x3);</t>
+  </si>
+  <si>
+    <t>write64(my_page + 0x890, my_page + 0x8c0);</t>
+  </si>
+  <si>
+    <t>write64(my_page + 0x898, mov_x1_x2__br_x3);</t>
+  </si>
+  <si>
+    <t>write64(my_page + 0x8a0, mov_x10_x14__br_x16);</t>
+  </si>
+  <si>
+    <t>write64(my_page + 0x8c0, mov_x7_x8__br_x10);</t>
+  </si>
+  <si>
+    <t>write64(my_page + 0x8d0, x7);</t>
+  </si>
+  <si>
+    <t>write64(my_page + 0x8d8, my_page + 0x900);</t>
+  </si>
+  <si>
+    <t>write64(my_page + 0x8e0, gadget_populate);</t>
+  </si>
+  <si>
+    <t>write64(my_page + 0x910, my_page + 0x940);</t>
+  </si>
+  <si>
+    <t>write64(my_page + 0x918, gadget_populate);</t>
+  </si>
+  <si>
+    <t>write64(my_page + 0x920, gadget_populate);</t>
+  </si>
+  <si>
+    <t>write64(my_page + 0x900, mov_x16_x2__br_x3);</t>
+  </si>
+  <si>
+    <t>write64(my_page + 0x940, mov_x14_x2__br_x3);</t>
+  </si>
+  <si>
+    <t>write64(my_page + 0x950, my_page + 0x980);</t>
+  </si>
+  <si>
+    <t>write64(my_page + 0x958, mov_x1_x9__br_x13);</t>
+  </si>
+  <si>
+    <t>write64(my_page + 0x960, mov_x10_x14__br_x16);</t>
+  </si>
+  <si>
+    <t>write64(my_page + 0x980, mov_x16_x2__br_x3);</t>
+  </si>
+  <si>
+    <t>write64(my_page + 0x990, my_page + 0x9C0);</t>
+  </si>
+  <si>
+    <t>write64(my_page + 0x998, gadget_populate);</t>
+  </si>
+  <si>
+    <t>write64(my_page + 0x9A0, gadget_populate);</t>
+  </si>
+  <si>
+    <t>write64(my_page + 0x9C0, mov_x14_x2__br_x3);</t>
+  </si>
+  <si>
+    <t>write64(my_page + 0x9D0, my_page + 0xA00);</t>
+  </si>
+  <si>
+    <t>write64(my_page + 0x9D8, addr);</t>
+  </si>
+  <si>
+    <t>write64(my_page + 0x9E0, mov_x13_x14__br_x16);</t>
+  </si>
+  <si>
+    <t>write64(my_page + 0xA00, mov_x4_x8__br_x10);</t>
+  </si>
+  <si>
+    <t>write64(my_page + 0xA10, x4);</t>
+  </si>
+  <si>
+    <t>write64(my_page + 0xA18, x2);</t>
+  </si>
+  <si>
+    <t>write64(my_page + 0xA20, x3);</t>
+  </si>
+  <si>
+    <t>0x15880ac18: 0xdeadbeef41424342</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x15880ac10: 0xdeadbeef41424344</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x15880ac08: 0xdeadbeef41424340</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>write64(my_page + 0xA08, x0);</t>
+  </si>
+  <si>
+    <t>x1 + 0x08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2705,6 +2925,30 @@
       <color theme="1"/>
       <name val="Menlo Regular"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2728,7 +2972,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2745,6 +2989,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2765,6 +3012,455 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4701229</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133684</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6004649</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>148389</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="직선 화살표 연결선 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2F65E3A-6FFB-944E-964F-E2DA441520D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5659299" y="2005263"/>
+          <a:ext cx="1303420" cy="482600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4712369</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>130119</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5989943</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133685</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="직선 화살표 연결선 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{168CD721-6D56-CD4F-B9B2-62A8A28109C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5670439" y="2001698"/>
+          <a:ext cx="1277574" cy="237513"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4723509</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133684</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>133685</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="직선 화살표 연결선 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AAE90F1-E44F-B34A-B531-CC06EFE2E4CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5681579" y="2239210"/>
+          <a:ext cx="1292281" cy="701843"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4723509</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>111403</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6004649</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>144825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="직선 화살표 연결선 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A97DAFD-7140-7E47-94C8-3D44B10760FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5681579" y="2450877"/>
+          <a:ext cx="1281140" cy="267369"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5971228</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>122544</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>11140</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>155965</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="직선 화살표 연결선 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16F9E7CC-7A1C-9D41-99FF-6CB9CB8B8E79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6923728" y="2408544"/>
+          <a:ext cx="1329712" cy="262021"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6015790</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>122544</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>167105</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="직선 화살표 연결선 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3020E774-FD71-AA41-9707-F1152AB5ACB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6973860" y="2929912"/>
+          <a:ext cx="1270000" cy="278509"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5960088</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133684</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133684</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="직선 화살표 연결선 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{604E919C-7754-544F-BD9C-057F51C617EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6912588" y="1962484"/>
+          <a:ext cx="1329712" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5993509</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>130120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7576</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>144825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="직선 화살표 연결선 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7123707F-878B-6A4E-853D-7C8622C50F64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6946009" y="2187520"/>
+          <a:ext cx="1303867" cy="700505"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2990,7 +3686,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3216,7 +3912,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3442,7 +4138,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3668,7 +4364,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3894,7 +4590,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4120,7 +4816,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4346,7 +5042,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4535,232 +5231,6 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{401BB07D-70B0-DC48-BA56-40AB2B3C25FE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="6946009" y="2187520"/>
-          <a:ext cx="1303867" cy="700505"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>5971228</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>122544</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>11140</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>155965</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2" name="직선 화살표 연결선 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16F9E7CC-7A1C-9D41-99FF-6CB9CB8B8E79}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="6923728" y="2408544"/>
-          <a:ext cx="1329712" cy="262021"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="92D050"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>5982369</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>111403</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>122544</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="직선 화살표 연결선 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3020E774-FD71-AA41-9707-F1152AB5ACB2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="6934869" y="2397403"/>
-          <a:ext cx="1307431" cy="239741"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>5960088</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>133684</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>133684</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="직선 화살표 연결선 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{604E919C-7754-544F-BD9C-057F51C617EA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="6912588" y="1962484"/>
-          <a:ext cx="1329712" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>5993509</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>130120</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>7576</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>144825</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="직선 화살표 연결선 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7123707F-878B-6A4E-853D-7C8622C50F64}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5425,6 +5895,565 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC19751C-5296-0D40-9426-D47A368B6B2A}">
+  <dimension ref="B2:E79"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="114" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="2" max="2" width="82" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="84.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="77.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5">
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="5" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="2" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="C9" t="s">
+        <v>621</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="E9" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="C10" t="s">
+        <v>627</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="E10" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="C11" t="s">
+        <v>629</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="E11" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="C12" t="s">
+        <v>628</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="E12" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="2" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="C20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="2" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="2" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="2" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="2" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="B42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="B46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="B47" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4">
+      <c r="B48" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="B49" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C49" s="4"/>
+      <c r="D49" s="2" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="B51" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4">
+      <c r="B52" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4">
+      <c r="B53" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="2" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4">
+      <c r="B54" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4">
+      <c r="B55" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4">
+      <c r="B56" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4">
+      <c r="B57" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4">
+      <c r="B58" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4">
+      <c r="B59" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4">
+      <c r="B60" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4">
+      <c r="B61" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4">
+      <c r="B62" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4">
+      <c r="B63" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4">
+      <c r="B64" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA508E15-07A0-FF43-930C-B73888373201}">
   <dimension ref="B2:E81"/>
   <sheetViews>
@@ -5949,12 +6978,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{719D7888-CDDB-7748-AC53-9C5F46DF1143}">
   <dimension ref="B2:E81"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="114" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView zoomScale="114" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -6010,6 +7039,9 @@
       <c r="D9" s="2" t="s">
         <v>364</v>
       </c>
+      <c r="E9" t="s">
+        <v>830</v>
+      </c>
     </row>
     <row r="10" spans="2:5">
       <c r="C10" t="s">
@@ -6018,6 +7050,9 @@
       <c r="D10" s="2" t="s">
         <v>366</v>
       </c>
+      <c r="E10" t="s">
+        <v>831</v>
+      </c>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="2" t="s">
@@ -6029,6 +7064,9 @@
       <c r="D11" s="2" t="s">
         <v>367</v>
       </c>
+      <c r="E11" t="s">
+        <v>832</v>
+      </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="2" t="s">
@@ -6039,6 +7077,9 @@
       </c>
       <c r="D12" s="2" t="s">
         <v>640</v>
+      </c>
+      <c r="E12" t="s">
+        <v>833</v>
       </c>
     </row>
     <row r="13" spans="2:5">
@@ -6506,7 +7547,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE7F58B1-F49D-EB45-BA34-DE9DE83E63C8}">
   <dimension ref="B2:E81"/>
   <sheetViews>
@@ -7027,7 +8068,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CA8452A-A008-1C44-85AC-CD22BA2CA3C0}">
   <dimension ref="B2:E81"/>
   <sheetViews>
@@ -7548,12 +8589,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB52362D-B054-6F49-AFF9-202959E9B8F3}">
   <dimension ref="B2:E81"/>
   <sheetViews>
-    <sheetView zoomScale="114" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="C1" zoomScale="114" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -7609,6 +8650,9 @@
       <c r="D9" s="2" t="s">
         <v>372</v>
       </c>
+      <c r="E9" t="s">
+        <v>834</v>
+      </c>
     </row>
     <row r="10" spans="2:5">
       <c r="C10" t="s">
@@ -7617,6 +8661,9 @@
       <c r="D10" s="2" t="s">
         <v>374</v>
       </c>
+      <c r="E10" t="s">
+        <v>835</v>
+      </c>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="2" t="s">
@@ -7628,6 +8675,9 @@
       <c r="D11" s="2" t="s">
         <v>375</v>
       </c>
+      <c r="E11" t="s">
+        <v>836</v>
+      </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="2" t="s">
@@ -7638,6 +8688,9 @@
       </c>
       <c r="D12" s="2" t="s">
         <v>376</v>
+      </c>
+      <c r="E12" t="s">
+        <v>837</v>
       </c>
     </row>
     <row r="13" spans="2:5">
@@ -8101,7 +9154,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{700A9BDF-964F-DE44-AA9F-94CB54421143}">
   <dimension ref="B2:E81"/>
   <sheetViews>
@@ -8622,7 +9675,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BE32EA9-7DA4-D44D-BDB3-6A39046DBF62}">
   <dimension ref="B2:E81"/>
   <sheetViews>
@@ -9143,12 +10196,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEDAF979-D3AC-EF4E-89D4-C0915FED6C96}">
   <dimension ref="B2:E81"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="114" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="B1" zoomScale="114" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -9204,6 +10257,9 @@
       <c r="D9" s="2" t="s">
         <v>380</v>
       </c>
+      <c r="E9" t="s">
+        <v>841</v>
+      </c>
     </row>
     <row r="10" spans="2:5">
       <c r="C10" t="s">
@@ -9212,6 +10268,9 @@
       <c r="D10" s="2" t="s">
         <v>382</v>
       </c>
+      <c r="E10" t="s">
+        <v>838</v>
+      </c>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="2" t="s">
@@ -9223,6 +10282,9 @@
       <c r="D11" s="2" t="s">
         <v>383</v>
       </c>
+      <c r="E11" t="s">
+        <v>839</v>
+      </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="2" t="s">
@@ -9233,6 +10295,9 @@
       </c>
       <c r="D12" s="2" t="s">
         <v>384</v>
+      </c>
+      <c r="E12" t="s">
+        <v>840</v>
       </c>
     </row>
     <row r="13" spans="2:5">
@@ -9696,7 +10761,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE58327-4866-794A-9ACF-4638133CDE49}">
   <dimension ref="B2:E81"/>
   <sheetViews>
@@ -10218,559 +11283,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B430445-9448-1544-9AE1-3DD7D33100C7}">
-  <dimension ref="B2:E81"/>
-  <sheetViews>
-    <sheetView zoomScale="114" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
-  <cols>
-    <col min="2" max="2" width="82" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="84.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="77.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:5">
-      <c r="B2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5">
-      <c r="B3" s="5" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5">
-      <c r="B4" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="2" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="2" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="C9" t="s">
-        <v>621</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="C10" t="s">
-        <v>627</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="C11" t="s">
-        <v>629</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="C12" t="s">
-        <v>628</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="2" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5">
-      <c r="B14" s="2" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="B15" s="2"/>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="C18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="C20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="B25" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="B26" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="2" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="B27" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="2" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="B28" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4">
-      <c r="B29" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4">
-      <c r="B30" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4">
-      <c r="B31" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4">
-      <c r="B32" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4">
-      <c r="B35" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4">
-      <c r="B36" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4">
-      <c r="B37" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="2" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4">
-      <c r="B38" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4">
-      <c r="B39" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4">
-      <c r="B40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4">
-      <c r="B41" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="2" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4">
-      <c r="B42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4">
-      <c r="B43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4">
-      <c r="B44" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4">
-      <c r="B45" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4">
-      <c r="B46" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4">
-      <c r="B47" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4">
-      <c r="B48" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4">
-      <c r="B49" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="2" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4">
-      <c r="B50" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4">
-      <c r="B51" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4">
-      <c r="B52" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4">
-      <c r="B53" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C53" s="3"/>
-      <c r="D53" s="2" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4">
-      <c r="B54" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4">
-      <c r="B55" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4">
-      <c r="B56" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4">
-      <c r="B57" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4">
-      <c r="B58" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4">
-      <c r="B59" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4">
-      <c r="B60" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4">
-      <c r="B61" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4">
-      <c r="B62" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4">
-      <c r="B63" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4">
-      <c r="B64" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2">
-      <c r="B65" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2">
-      <c r="B66" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2">
-      <c r="B67" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2">
-      <c r="B68" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2">
-      <c r="B69" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2">
-      <c r="B70" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2">
-      <c r="B71" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2">
-      <c r="B72" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2">
-      <c r="B73" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="74" spans="2:2">
-      <c r="B74" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2">
-      <c r="B75" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="76" spans="2:2">
-      <c r="B76" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2">
-      <c r="B77" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="78" spans="2:2">
-      <c r="B78" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="79" spans="2:2">
-      <c r="B79" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2">
-      <c r="B80" s="2"/>
-    </row>
-    <row r="81" spans="2:2">
-      <c r="B81" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11175,6 +11687,571 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B430445-9448-1544-9AE1-3DD7D33100C7}">
+  <dimension ref="B2:E81"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="114" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="2" max="2" width="82" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="84.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="77.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5">
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="5" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="2" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="C9" t="s">
+        <v>621</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="E9" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="C10" t="s">
+        <v>627</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E10" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="C11" t="s">
+        <v>629</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="E11" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="C12" t="s">
+        <v>628</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E12" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="2" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="2" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="C20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="2" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="2" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="2" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="2" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="B42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="B46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="B47" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4">
+      <c r="B48" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="B49" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C49" s="4"/>
+      <c r="D49" s="2" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="B51" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4">
+      <c r="B52" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4">
+      <c r="B53" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="2" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4">
+      <c r="B54" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4">
+      <c r="B55" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4">
+      <c r="B56" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4">
+      <c r="B57" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4">
+      <c r="B58" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4">
+      <c r="B59" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4">
+      <c r="B60" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4">
+      <c r="B61" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4">
+      <c r="B62" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4">
+      <c r="B63" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4">
+      <c r="B64" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" s="2"/>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{214EE0A4-54B0-CA44-94AB-8E63F4031E64}">
   <dimension ref="B2:E81"/>
   <sheetViews>
@@ -11695,7 +12772,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B710822-787C-F349-B691-B32A14D0128C}">
   <dimension ref="B2:E81"/>
   <sheetViews>
@@ -12216,12 +13293,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F892F70-E5F4-F548-8BA1-315F1D446238}">
   <dimension ref="B2:E81"/>
   <sheetViews>
-    <sheetView zoomScale="114" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="C1" zoomScale="114" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -12277,6 +13354,9 @@
       <c r="D9" s="2" t="s">
         <v>396</v>
       </c>
+      <c r="E9" t="s">
+        <v>846</v>
+      </c>
     </row>
     <row r="10" spans="2:5">
       <c r="C10" t="s">
@@ -12285,6 +13365,9 @@
       <c r="D10" s="2" t="s">
         <v>398</v>
       </c>
+      <c r="E10" t="s">
+        <v>847</v>
+      </c>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="2" t="s">
@@ -12296,6 +13379,9 @@
       <c r="D11" s="2" t="s">
         <v>399</v>
       </c>
+      <c r="E11" t="s">
+        <v>848</v>
+      </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="2" t="s">
@@ -12306,6 +13392,9 @@
       </c>
       <c r="D12" s="2" t="s">
         <v>400</v>
+      </c>
+      <c r="E12" t="s">
+        <v>849</v>
       </c>
     </row>
     <row r="13" spans="2:5">
@@ -12769,7 +13858,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73DEF51B-C4B4-3B4F-9E35-611C1D9CA875}">
   <dimension ref="B2:E81"/>
   <sheetViews>
@@ -13294,12 +14383,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A87F6DE-1797-E74B-8DC7-6A25DD169A8D}">
   <dimension ref="B2:E81"/>
   <sheetViews>
-    <sheetView zoomScale="114" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="B1" zoomScale="114" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -13355,6 +14444,9 @@
       <c r="D9" s="2" t="s">
         <v>404</v>
       </c>
+      <c r="E9" t="s">
+        <v>850</v>
+      </c>
     </row>
     <row r="10" spans="2:5">
       <c r="C10" t="s">
@@ -13363,6 +14455,9 @@
       <c r="D10" s="2" t="s">
         <v>406</v>
       </c>
+      <c r="E10" t="s">
+        <v>851</v>
+      </c>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="2" t="s">
@@ -13374,6 +14469,9 @@
       <c r="D11" s="2" t="s">
         <v>407</v>
       </c>
+      <c r="E11" t="s">
+        <v>852</v>
+      </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="2" t="s">
@@ -13384,6 +14482,9 @@
       </c>
       <c r="D12" s="2" t="s">
         <v>408</v>
+      </c>
+      <c r="E12" t="s">
+        <v>853</v>
       </c>
     </row>
     <row r="13" spans="2:5">
@@ -13847,7 +14948,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AA2F9DE-D847-084D-B155-9BCE7479C9F8}">
   <dimension ref="B2:E81"/>
   <sheetViews>
@@ -14368,7 +15469,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BB802BA-F68B-474A-BC2B-B74420AA1344}">
   <dimension ref="B2:E81"/>
   <sheetViews>
@@ -14889,12 +15990,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40BA8FCD-61DC-354C-81C4-E6F42D78585B}">
   <dimension ref="B2:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="114" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -14950,13 +16051,19 @@
       <c r="D9" s="2" t="s">
         <v>412</v>
       </c>
+      <c r="E9" t="s">
+        <v>854</v>
+      </c>
     </row>
     <row r="10" spans="2:5">
       <c r="C10" t="s">
         <v>627</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>414</v>
+        <v>859</v>
+      </c>
+      <c r="E10" t="s">
+        <v>855</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -14967,7 +16074,10 @@
         <v>629</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>415</v>
+        <v>858</v>
+      </c>
+      <c r="E11" t="s">
+        <v>856</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -14980,10 +16090,22 @@
       <c r="D12" s="2" t="s">
         <v>416</v>
       </c>
+      <c r="E12" t="s">
+        <v>857</v>
+      </c>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="2" t="s">
         <v>732</v>
+      </c>
+      <c r="C13" t="s">
+        <v>862</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="E13" t="s">
+        <v>861</v>
       </c>
     </row>
     <row r="14" spans="2:5">
@@ -15442,7 +16564,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4797B499-9DC4-104A-82DE-0B52EABE235A}">
   <dimension ref="B2:E81"/>
   <sheetViews>
@@ -15820,527 +16942,6 @@
       <c r="D53" s="2" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="54" spans="2:4">
-      <c r="B54" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4">
-      <c r="B55" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4">
-      <c r="B56" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4">
-      <c r="B57" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4">
-      <c r="B58" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4">
-      <c r="B59" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4">
-      <c r="B60" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4">
-      <c r="B61" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4">
-      <c r="B62" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4">
-      <c r="B63" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4">
-      <c r="B64" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2">
-      <c r="B65" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2">
-      <c r="B66" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2">
-      <c r="B67" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2">
-      <c r="B68" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2">
-      <c r="B69" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2">
-      <c r="B70" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2">
-      <c r="B71" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2">
-      <c r="B72" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2">
-      <c r="B73" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="74" spans="2:2">
-      <c r="B74" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2">
-      <c r="B75" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="76" spans="2:2">
-      <c r="B76" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2">
-      <c r="B77" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="78" spans="2:2">
-      <c r="B78" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="79" spans="2:2">
-      <c r="B79" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2">
-      <c r="B80" s="2"/>
-    </row>
-    <row r="81" spans="2:2">
-      <c r="B81" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50438EDF-6EA0-E849-8214-47C7C5FA7719}">
-  <dimension ref="B2:E81"/>
-  <sheetViews>
-    <sheetView zoomScale="114" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
-  <cols>
-    <col min="2" max="2" width="82" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="84.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="77.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:5">
-      <c r="B2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5">
-      <c r="B3" s="5" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5">
-      <c r="B4" s="2" t="s">
-        <v>812</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="2" t="s">
-        <v>739</v>
-      </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="2"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="2"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="2:5">
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="B15" s="2"/>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="C18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="C20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="B25" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="B26" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="2" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="B27" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="2" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="B28" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4">
-      <c r="B29" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4">
-      <c r="B30" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4">
-      <c r="B31" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4">
-      <c r="B32" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4">
-      <c r="B35" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4">
-      <c r="B36" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4">
-      <c r="B37" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="2" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4">
-      <c r="B38" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4">
-      <c r="B39" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4">
-      <c r="B40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4">
-      <c r="B41" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="2" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4">
-      <c r="B42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4">
-      <c r="B43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4">
-      <c r="B44" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4">
-      <c r="B45" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4">
-      <c r="B46" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4">
-      <c r="B47" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4">
-      <c r="B48" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4">
-      <c r="B49" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="2" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4">
-      <c r="B50" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4">
-      <c r="B51" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4">
-      <c r="B52" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4">
-      <c r="B53" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C53" s="3"/>
     </row>
     <row r="54" spans="2:4">
       <c r="B54" s="2" t="s">
@@ -16966,6 +17567,527 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50438EDF-6EA0-E849-8214-47C7C5FA7719}">
+  <dimension ref="B2:E81"/>
+  <sheetViews>
+    <sheetView zoomScale="114" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="2" max="2" width="82" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="84.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="77.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5">
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="5" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="C20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="2" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="2" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="2" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="2" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="B42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="B46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="B47" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4">
+      <c r="B48" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="B49" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C49" s="4"/>
+      <c r="D49" s="2" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="B51" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4">
+      <c r="B52" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4">
+      <c r="B53" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53" s="3"/>
+    </row>
+    <row r="54" spans="2:4">
+      <c r="B54" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4">
+      <c r="B55" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4">
+      <c r="B56" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4">
+      <c r="B57" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4">
+      <c r="B58" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4">
+      <c r="B59" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4">
+      <c r="B60" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4">
+      <c r="B61" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4">
+      <c r="B62" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4">
+      <c r="B63" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4">
+      <c r="B64" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" s="2"/>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4175E13A-6F32-DE45-B1D4-3A7CE02A82F1}">
   <dimension ref="B2:C514"/>
   <sheetViews>
@@ -19556,7 +20678,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A679619B-7D8F-7441-9FDD-9E956C921ADC}">
   <dimension ref="B2:C514"/>
   <sheetViews>
@@ -22148,528 +23270,2591 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E77FBF-EABC-CA41-9420-D223F171C371}">
-  <dimension ref="B2:D76"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91733A6F-03CA-3C4C-8A38-E64CBAE61E7F}">
+  <dimension ref="B2:C514"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="114" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView topLeftCell="A239" workbookViewId="0">
+      <selection activeCell="D259" sqref="D259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="67.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="80.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="77.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
-      <c r="B2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4">
-      <c r="B3" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4">
-      <c r="B4" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4">
+    <row r="2" spans="2:2">
+      <c r="B2" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="2" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
       <c r="B8" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="C8" t="s">
-        <v>621</v>
-      </c>
-      <c r="D8" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="B29" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="B32" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="2:4">
-      <c r="B9" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="C9" t="s">
-        <v>627</v>
-      </c>
-      <c r="D9" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="B10" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="C10" t="s">
-        <v>629</v>
-      </c>
-      <c r="D10" s="2" t="s">
+    <row r="36" spans="2:2">
+      <c r="B36" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="2" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
-      <c r="B11" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="C11" t="s">
-        <v>628</v>
-      </c>
-      <c r="D11" s="2" t="s">
+    <row r="39" spans="2:2">
+      <c r="B39" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
-      <c r="B12" s="2" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="B14" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="B15" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="C15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4">
-      <c r="B16" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="C17" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="2" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="2" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="B25" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="B26" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="B27" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="B28" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4">
-      <c r="B29" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4">
-      <c r="B30" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4">
-      <c r="B31" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4">
-      <c r="B32" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="2" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4">
-      <c r="B35" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4">
-      <c r="B36" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4">
-      <c r="B37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4">
-      <c r="B38" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="2" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4">
-      <c r="B39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4">
+    <row r="40" spans="2:2">
       <c r="B40" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
       <c r="B41" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
       <c r="B42" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
       <c r="B43" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
       <c r="B44" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
       <c r="B45" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
       <c r="B46" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C46" s="4"/>
-      <c r="D46" s="2" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
       <c r="B47" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
       <c r="B48" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
       <c r="B49" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
       <c r="B50" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C50" s="3"/>
-      <c r="D50" s="2" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
       <c r="B51" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
       <c r="B52" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
       <c r="B53" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
       <c r="B54" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
       <c r="B55" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
       <c r="B56" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
       <c r="B57" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
       <c r="B58" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
       <c r="B59" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
       <c r="B60" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
       <c r="B61" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
       <c r="B62" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
       <c r="B63" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
       <c r="B64" s="2" t="s">
-        <v>32</v>
+        <v>153</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" s="2" t="s">
-        <v>33</v>
+        <v>154</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" s="2" t="s">
-        <v>34</v>
+        <v>155</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" s="2" t="s">
-        <v>35</v>
+        <v>156</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" s="2" t="s">
-        <v>36</v>
+        <v>157</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69" s="2" t="s">
-        <v>37</v>
+        <v>158</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70" s="2" t="s">
-        <v>38</v>
+        <v>159</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71" s="2" t="s">
-        <v>39</v>
+        <v>160</v>
       </c>
     </row>
     <row r="72" spans="2:2">
       <c r="B72" s="2" t="s">
-        <v>40</v>
+        <v>161</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" s="2" t="s">
-        <v>41</v>
+        <v>162</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" s="2" t="s">
-        <v>42</v>
+        <v>163</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" s="2" t="s">
-        <v>43</v>
+        <v>164</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76" s="2" t="s">
-        <v>44</v>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2">
+      <c r="B111" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2">
+      <c r="B112" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2">
+      <c r="B120" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2">
+      <c r="B121" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2">
+      <c r="B122" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2">
+      <c r="B123" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2">
+      <c r="B124" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2">
+      <c r="B127" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2">
+      <c r="B128" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2">
+      <c r="B133" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2">
+      <c r="B134" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2">
+      <c r="B135" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2">
+      <c r="B136" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2">
+      <c r="B137" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2">
+      <c r="B138" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2">
+      <c r="B139" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2">
+      <c r="B140" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2">
+      <c r="B141" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2">
+      <c r="B142" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2">
+      <c r="B143" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2">
+      <c r="B144" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2">
+      <c r="B145" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2">
+      <c r="B146" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2">
+      <c r="B147" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2">
+      <c r="B148" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2">
+      <c r="B149" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2">
+      <c r="B150" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2">
+      <c r="B151" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2">
+      <c r="B152" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2">
+      <c r="B153" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2">
+      <c r="B154" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2">
+      <c r="B155" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2">
+      <c r="B156" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2">
+      <c r="B157" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2">
+      <c r="B158" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2">
+      <c r="B159" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2">
+      <c r="B160" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2">
+      <c r="B161" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2">
+      <c r="B162" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2">
+      <c r="B163" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2">
+      <c r="B164" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2">
+      <c r="B165" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2">
+      <c r="B166" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2">
+      <c r="B167" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2">
+      <c r="B168" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2">
+      <c r="B169" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2">
+      <c r="B170" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2">
+      <c r="B171" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2">
+      <c r="B172" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2">
+      <c r="B173" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2">
+      <c r="B174" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2">
+      <c r="B175" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2">
+      <c r="B176" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2">
+      <c r="B177" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2">
+      <c r="B178" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2">
+      <c r="B179" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2">
+      <c r="B180" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2">
+      <c r="B181" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2">
+      <c r="B182" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2">
+      <c r="B183" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="184" spans="2:2">
+      <c r="B184" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2">
+      <c r="B185" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2">
+      <c r="B186" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="187" spans="2:2">
+      <c r="B187" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="188" spans="2:2">
+      <c r="B188" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2">
+      <c r="B189" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="190" spans="2:2">
+      <c r="B190" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="191" spans="2:2">
+      <c r="B191" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="192" spans="2:2">
+      <c r="B192" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2">
+      <c r="B193" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2">
+      <c r="B194" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="195" spans="2:2">
+      <c r="B195" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="196" spans="2:2">
+      <c r="B196" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="197" spans="2:2">
+      <c r="B197" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2">
+      <c r="B198" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="199" spans="2:2">
+      <c r="B199" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="200" spans="2:2">
+      <c r="B200" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="201" spans="2:2">
+      <c r="B201" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="202" spans="2:2">
+      <c r="B202" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="203" spans="2:2">
+      <c r="B203" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="204" spans="2:2">
+      <c r="B204" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="205" spans="2:2">
+      <c r="B205" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="206" spans="2:2">
+      <c r="B206" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="207" spans="2:2">
+      <c r="B207" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="208" spans="2:2">
+      <c r="B208" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2">
+      <c r="B209" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2">
+      <c r="B210" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="211" spans="2:2">
+      <c r="B211" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="212" spans="2:2">
+      <c r="B212" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="213" spans="2:2">
+      <c r="B213" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="214" spans="2:2">
+      <c r="B214" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="215" spans="2:2">
+      <c r="B215" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="216" spans="2:2">
+      <c r="B216" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="217" spans="2:2">
+      <c r="B217" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="218" spans="2:2">
+      <c r="B218" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="219" spans="2:2">
+      <c r="B219" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="220" spans="2:2">
+      <c r="B220" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="221" spans="2:2">
+      <c r="B221" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="222" spans="2:2">
+      <c r="B222" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="223" spans="2:2">
+      <c r="B223" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="224" spans="2:2">
+      <c r="B224" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="225" spans="2:2">
+      <c r="B225" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="226" spans="2:2">
+      <c r="B226" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="227" spans="2:2">
+      <c r="B227" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="228" spans="2:2">
+      <c r="B228" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="229" spans="2:2">
+      <c r="B229" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="230" spans="2:2">
+      <c r="B230" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="231" spans="2:2">
+      <c r="B231" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="232" spans="2:2">
+      <c r="B232" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="233" spans="2:2">
+      <c r="B233" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="234" spans="2:2">
+      <c r="B234" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="235" spans="2:2">
+      <c r="B235" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="236" spans="2:2">
+      <c r="B236" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="237" spans="2:2">
+      <c r="B237" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="238" spans="2:2">
+      <c r="B238" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="239" spans="2:2">
+      <c r="B239" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="240" spans="2:2">
+      <c r="B240" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="241" spans="2:3">
+      <c r="B241" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="242" spans="2:3">
+      <c r="B242" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="243" spans="2:3">
+      <c r="B243" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="244" spans="2:3">
+      <c r="B244" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="245" spans="2:3">
+      <c r="B245" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="246" spans="2:3">
+      <c r="B246" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="247" spans="2:3">
+      <c r="B247" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="248" spans="2:3">
+      <c r="B248" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="249" spans="2:3">
+      <c r="B249" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="250" spans="2:3">
+      <c r="B250" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="251" spans="2:3">
+      <c r="B251" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C251" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="252" spans="2:3">
+      <c r="B252" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="253" spans="2:3">
+      <c r="B253" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="254" spans="2:3">
+      <c r="B254" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="255" spans="2:3">
+      <c r="B255" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="256" spans="2:3">
+      <c r="B256" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="257" spans="2:3">
+      <c r="B257" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="258" spans="2:3">
+      <c r="B258" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="259" spans="2:3">
+      <c r="B259" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="C259" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="260" spans="2:3">
+      <c r="B260" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="261" spans="2:3">
+      <c r="B261" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="262" spans="2:3">
+      <c r="B262" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="263" spans="2:3">
+      <c r="B263" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="264" spans="2:3">
+      <c r="B264" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="265" spans="2:3">
+      <c r="B265" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="266" spans="2:3">
+      <c r="B266" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="267" spans="2:3">
+      <c r="B267" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="268" spans="2:3">
+      <c r="B268" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="269" spans="2:3">
+      <c r="B269" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="270" spans="2:3">
+      <c r="B270" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="271" spans="2:3">
+      <c r="B271" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="272" spans="2:3">
+      <c r="B272" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="273" spans="2:2">
+      <c r="B273" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="274" spans="2:2">
+      <c r="B274" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="275" spans="2:2">
+      <c r="B275" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="276" spans="2:2">
+      <c r="B276" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="277" spans="2:2">
+      <c r="B277" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="278" spans="2:2">
+      <c r="B278" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="279" spans="2:2">
+      <c r="B279" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="280" spans="2:2">
+      <c r="B280" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="281" spans="2:2">
+      <c r="B281" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="282" spans="2:2">
+      <c r="B282" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="283" spans="2:2">
+      <c r="B283" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="284" spans="2:2">
+      <c r="B284" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="285" spans="2:2">
+      <c r="B285" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="286" spans="2:2">
+      <c r="B286" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="287" spans="2:2">
+      <c r="B287" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="288" spans="2:2">
+      <c r="B288" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="289" spans="2:2">
+      <c r="B289" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="290" spans="2:2">
+      <c r="B290" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="291" spans="2:2">
+      <c r="B291" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="292" spans="2:2">
+      <c r="B292" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="293" spans="2:2">
+      <c r="B293" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="294" spans="2:2">
+      <c r="B294" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="295" spans="2:2">
+      <c r="B295" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="296" spans="2:2">
+      <c r="B296" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="297" spans="2:2">
+      <c r="B297" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="298" spans="2:2">
+      <c r="B298" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="299" spans="2:2">
+      <c r="B299" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="300" spans="2:2">
+      <c r="B300" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="301" spans="2:2">
+      <c r="B301" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="302" spans="2:2">
+      <c r="B302" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="303" spans="2:2">
+      <c r="B303" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="304" spans="2:2">
+      <c r="B304" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="305" spans="2:2">
+      <c r="B305" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="306" spans="2:2">
+      <c r="B306" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="307" spans="2:2">
+      <c r="B307" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="308" spans="2:2">
+      <c r="B308" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="309" spans="2:2">
+      <c r="B309" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="310" spans="2:2">
+      <c r="B310" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="311" spans="2:2">
+      <c r="B311" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="312" spans="2:2">
+      <c r="B312" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="313" spans="2:2">
+      <c r="B313" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="314" spans="2:2">
+      <c r="B314" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="315" spans="2:2">
+      <c r="B315" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="316" spans="2:2">
+      <c r="B316" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="317" spans="2:2">
+      <c r="B317" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="318" spans="2:2">
+      <c r="B318" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="319" spans="2:2">
+      <c r="B319" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="320" spans="2:2">
+      <c r="B320" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="321" spans="2:2">
+      <c r="B321" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="322" spans="2:2">
+      <c r="B322" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="323" spans="2:2">
+      <c r="B323" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="324" spans="2:2">
+      <c r="B324" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="325" spans="2:2">
+      <c r="B325" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="326" spans="2:2">
+      <c r="B326" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="327" spans="2:2">
+      <c r="B327" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="328" spans="2:2">
+      <c r="B328" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="329" spans="2:2">
+      <c r="B329" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="330" spans="2:2">
+      <c r="B330" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="331" spans="2:2">
+      <c r="B331" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="332" spans="2:2">
+      <c r="B332" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="333" spans="2:2">
+      <c r="B333" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="334" spans="2:2">
+      <c r="B334" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="335" spans="2:2">
+      <c r="B335" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="336" spans="2:2">
+      <c r="B336" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="337" spans="2:2">
+      <c r="B337" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="338" spans="2:2">
+      <c r="B338" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="339" spans="2:2">
+      <c r="B339" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="340" spans="2:2">
+      <c r="B340" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="341" spans="2:2">
+      <c r="B341" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="342" spans="2:2">
+      <c r="B342" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="343" spans="2:2">
+      <c r="B343" s="2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="344" spans="2:2">
+      <c r="B344" s="2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="345" spans="2:2">
+      <c r="B345" s="2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="346" spans="2:2">
+      <c r="B346" s="2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="347" spans="2:2">
+      <c r="B347" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="348" spans="2:2">
+      <c r="B348" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="349" spans="2:2">
+      <c r="B349" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="350" spans="2:2">
+      <c r="B350" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="351" spans="2:2">
+      <c r="B351" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="352" spans="2:2">
+      <c r="B352" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="353" spans="2:2">
+      <c r="B353" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="354" spans="2:2">
+      <c r="B354" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="355" spans="2:2">
+      <c r="B355" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="356" spans="2:2">
+      <c r="B356" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="357" spans="2:2">
+      <c r="B357" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="358" spans="2:2">
+      <c r="B358" s="2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="359" spans="2:2">
+      <c r="B359" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="360" spans="2:2">
+      <c r="B360" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="361" spans="2:2">
+      <c r="B361" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="362" spans="2:2">
+      <c r="B362" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="363" spans="2:2">
+      <c r="B363" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="364" spans="2:2">
+      <c r="B364" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="365" spans="2:2">
+      <c r="B365" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="366" spans="2:2">
+      <c r="B366" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="367" spans="2:2">
+      <c r="B367" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="368" spans="2:2">
+      <c r="B368" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="369" spans="2:2">
+      <c r="B369" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="370" spans="2:2">
+      <c r="B370" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="371" spans="2:2">
+      <c r="B371" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="372" spans="2:2">
+      <c r="B372" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="373" spans="2:2">
+      <c r="B373" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="374" spans="2:2">
+      <c r="B374" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="375" spans="2:2">
+      <c r="B375" s="2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="376" spans="2:2">
+      <c r="B376" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="377" spans="2:2">
+      <c r="B377" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="378" spans="2:2">
+      <c r="B378" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="379" spans="2:2">
+      <c r="B379" s="2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="380" spans="2:2">
+      <c r="B380" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="381" spans="2:2">
+      <c r="B381" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="382" spans="2:2">
+      <c r="B382" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="383" spans="2:2">
+      <c r="B383" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="384" spans="2:2">
+      <c r="B384" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="385" spans="2:2">
+      <c r="B385" s="2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="386" spans="2:2">
+      <c r="B386" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="387" spans="2:2">
+      <c r="B387" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="388" spans="2:2">
+      <c r="B388" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="389" spans="2:2">
+      <c r="B389" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="390" spans="2:2">
+      <c r="B390" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="391" spans="2:2">
+      <c r="B391" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="392" spans="2:2">
+      <c r="B392" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="393" spans="2:2">
+      <c r="B393" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="394" spans="2:2">
+      <c r="B394" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="395" spans="2:2">
+      <c r="B395" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="396" spans="2:2">
+      <c r="B396" s="2" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="397" spans="2:2">
+      <c r="B397" s="2" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="398" spans="2:2">
+      <c r="B398" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="399" spans="2:2">
+      <c r="B399" s="2" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="400" spans="2:2">
+      <c r="B400" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="401" spans="2:2">
+      <c r="B401" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="402" spans="2:2">
+      <c r="B402" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="403" spans="2:2">
+      <c r="B403" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="404" spans="2:2">
+      <c r="B404" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="405" spans="2:2">
+      <c r="B405" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="406" spans="2:2">
+      <c r="B406" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="407" spans="2:2">
+      <c r="B407" s="2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="408" spans="2:2">
+      <c r="B408" s="2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="409" spans="2:2">
+      <c r="B409" s="2" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="410" spans="2:2">
+      <c r="B410" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="411" spans="2:2">
+      <c r="B411" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="412" spans="2:2">
+      <c r="B412" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="413" spans="2:2">
+      <c r="B413" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="414" spans="2:2">
+      <c r="B414" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="415" spans="2:2">
+      <c r="B415" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="416" spans="2:2">
+      <c r="B416" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="417" spans="2:2">
+      <c r="B417" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="418" spans="2:2">
+      <c r="B418" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="419" spans="2:2">
+      <c r="B419" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="420" spans="2:2">
+      <c r="B420" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="421" spans="2:2">
+      <c r="B421" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="422" spans="2:2">
+      <c r="B422" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="423" spans="2:2">
+      <c r="B423" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="424" spans="2:2">
+      <c r="B424" s="2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="425" spans="2:2">
+      <c r="B425" s="2" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="426" spans="2:2">
+      <c r="B426" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="427" spans="2:2">
+      <c r="B427" s="2" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="428" spans="2:2">
+      <c r="B428" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="429" spans="2:2">
+      <c r="B429" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="430" spans="2:2">
+      <c r="B430" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="431" spans="2:2">
+      <c r="B431" s="2" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="432" spans="2:2">
+      <c r="B432" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="433" spans="2:2">
+      <c r="B433" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="434" spans="2:2">
+      <c r="B434" s="2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="435" spans="2:2">
+      <c r="B435" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="436" spans="2:2">
+      <c r="B436" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="437" spans="2:2">
+      <c r="B437" s="2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="438" spans="2:2">
+      <c r="B438" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="439" spans="2:2">
+      <c r="B439" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="440" spans="2:2">
+      <c r="B440" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="441" spans="2:2">
+      <c r="B441" s="2" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="442" spans="2:2">
+      <c r="B442" s="2" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="443" spans="2:2">
+      <c r="B443" s="2" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="444" spans="2:2">
+      <c r="B444" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="445" spans="2:2">
+      <c r="B445" s="2" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="446" spans="2:2">
+      <c r="B446" s="2" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="447" spans="2:2">
+      <c r="B447" s="2" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="448" spans="2:2">
+      <c r="B448" s="2" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="449" spans="2:2">
+      <c r="B449" s="2" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="450" spans="2:2">
+      <c r="B450" s="2" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="451" spans="2:2">
+      <c r="B451" s="2" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="452" spans="2:2">
+      <c r="B452" s="2" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="453" spans="2:2">
+      <c r="B453" s="2" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="454" spans="2:2">
+      <c r="B454" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="455" spans="2:2">
+      <c r="B455" s="2" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="456" spans="2:2">
+      <c r="B456" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="457" spans="2:2">
+      <c r="B457" s="2" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="458" spans="2:2">
+      <c r="B458" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="459" spans="2:2">
+      <c r="B459" s="2" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="460" spans="2:2">
+      <c r="B460" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="461" spans="2:2">
+      <c r="B461" s="2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="462" spans="2:2">
+      <c r="B462" s="2" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="463" spans="2:2">
+      <c r="B463" s="2" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="464" spans="2:2">
+      <c r="B464" s="2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="465" spans="2:2">
+      <c r="B465" s="2" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="466" spans="2:2">
+      <c r="B466" s="2" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="467" spans="2:2">
+      <c r="B467" s="2" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="468" spans="2:2">
+      <c r="B468" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="469" spans="2:2">
+      <c r="B469" s="2" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="470" spans="2:2">
+      <c r="B470" s="2" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="471" spans="2:2">
+      <c r="B471" s="2" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="472" spans="2:2">
+      <c r="B472" s="2" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="473" spans="2:2">
+      <c r="B473" s="2" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="474" spans="2:2">
+      <c r="B474" s="2" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="475" spans="2:2">
+      <c r="B475" s="2" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="476" spans="2:2">
+      <c r="B476" s="2" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="477" spans="2:2">
+      <c r="B477" s="2" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="478" spans="2:2">
+      <c r="B478" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="479" spans="2:2">
+      <c r="B479" s="2" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="480" spans="2:2">
+      <c r="B480" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="481" spans="2:2">
+      <c r="B481" s="2" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="482" spans="2:2">
+      <c r="B482" s="2" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="483" spans="2:2">
+      <c r="B483" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="484" spans="2:2">
+      <c r="B484" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="485" spans="2:2">
+      <c r="B485" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="486" spans="2:2">
+      <c r="B486" s="2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="487" spans="2:2">
+      <c r="B487" s="2" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="488" spans="2:2">
+      <c r="B488" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="489" spans="2:2">
+      <c r="B489" s="2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="490" spans="2:2">
+      <c r="B490" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="491" spans="2:2">
+      <c r="B491" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="492" spans="2:2">
+      <c r="B492" s="2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="493" spans="2:2">
+      <c r="B493" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="494" spans="2:2">
+      <c r="B494" s="2" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="495" spans="2:2">
+      <c r="B495" s="2" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="496" spans="2:2">
+      <c r="B496" s="2" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="497" spans="2:2">
+      <c r="B497" s="2" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="498" spans="2:2">
+      <c r="B498" s="2" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="499" spans="2:2">
+      <c r="B499" s="2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="500" spans="2:2">
+      <c r="B500" s="2" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="501" spans="2:2">
+      <c r="B501" s="2" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="502" spans="2:2">
+      <c r="B502" s="2" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="503" spans="2:2">
+      <c r="B503" s="2" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="504" spans="2:2">
+      <c r="B504" s="2" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="505" spans="2:2">
+      <c r="B505" s="2" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="506" spans="2:2">
+      <c r="B506" s="2" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="507" spans="2:2">
+      <c r="B507" s="2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="508" spans="2:2">
+      <c r="B508" s="2" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="509" spans="2:2">
+      <c r="B509" s="2" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="510" spans="2:2">
+      <c r="B510" s="2" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="511" spans="2:2">
+      <c r="B511" s="2" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="512" spans="2:2">
+      <c r="B512" s="2" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="513" spans="2:2">
+      <c r="B513" s="2" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="514" spans="2:2">
+      <c r="B514" s="2" t="s">
+        <v>603</v>
       </c>
     </row>
   </sheetData>
@@ -22679,11 +25864,564 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E77FBF-EABC-CA41-9420-D223F171C371}">
+  <dimension ref="B2:E77"/>
+  <sheetViews>
+    <sheetView zoomScale="114" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="2" max="2" width="67.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="87.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="77.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5">
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="C8" t="s">
+        <v>621</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="C9" t="s">
+        <v>627</v>
+      </c>
+      <c r="D9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="C10" t="s">
+        <v>629</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="E10" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="C11" t="s">
+        <v>628</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E11" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="2" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="C16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="C18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="2" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="2" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="2" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="2" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="B42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="B46" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="B47" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C47" s="4"/>
+      <c r="D47" s="2" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4">
+      <c r="B48" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="B49" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="B51" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51" s="3"/>
+      <c r="D51" s="2" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4">
+      <c r="B52" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4">
+      <c r="B53" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4">
+      <c r="B54" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4">
+      <c r="B55" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4">
+      <c r="B56" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4">
+      <c r="B57" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4">
+      <c r="B58" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4">
+      <c r="B59" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4">
+      <c r="B60" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4">
+      <c r="B61" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4">
+      <c r="B62" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4">
+      <c r="B63" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4">
+      <c r="B64" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA2E523D-D618-3546-A432-75C1726403C3}">
-  <dimension ref="B2:E74"/>
+  <dimension ref="B2:E76"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="114" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView zoomScale="114" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -22701,7 +26439,7 @@
     </row>
     <row r="3" spans="2:5">
       <c r="B3" t="s">
-        <v>669</v>
+        <v>821</v>
       </c>
     </row>
     <row r="4" spans="2:5">
@@ -22730,438 +26468,444 @@
     <row r="10" spans="2:5">
       <c r="B10" s="2"/>
     </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="2"/>
+    </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2"/>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="1" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="C13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5">
-      <c r="B14" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" s="2" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>749</v>
+        <v>61</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="16" spans="2:5">
       <c r="B16" s="2" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>763</v>
+        <v>687</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="2" t="s">
-        <v>64</v>
+        <v>608</v>
+      </c>
+      <c r="C17" t="s">
+        <v>62</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>689</v>
+        <v>749</v>
       </c>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="2" t="s">
-        <v>65</v>
+        <v>609</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>690</v>
+        <v>763</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="3"/>
+        <v>66</v>
+      </c>
       <c r="D21" s="2" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" s="3"/>
+        <v>67</v>
+      </c>
       <c r="D22" s="2" t="s">
-        <v>753</v>
+        <v>692</v>
       </c>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="2" t="s">
-        <v>70</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="C23" s="3"/>
       <c r="D23" s="2" t="s">
-        <v>764</v>
+        <v>693</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="2" t="s">
-        <v>71</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="C24" s="3"/>
       <c r="D24" s="2" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>756</v>
+        <v>764</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>697</v>
+        <v>755</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>698</v>
+        <v>756</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="2" t="s">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>757</v>
+        <v>698</v>
       </c>
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="2" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>758</v>
+        <v>699</v>
       </c>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>702</v>
+        <v>757</v>
       </c>
     </row>
     <row r="32" spans="2:4">
       <c r="B32" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="4"/>
+        <v>4</v>
+      </c>
       <c r="D32" s="2" t="s">
-        <v>703</v>
+        <v>758</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>704</v>
+        <v>5</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="34" spans="2:4">
       <c r="B34" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C34" s="4"/>
       <c r="D34" s="2" t="s">
-        <v>760</v>
+        <v>703</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="3"/>
+        <v>8</v>
+      </c>
       <c r="D36" s="2" t="s">
-        <v>706</v>
+        <v>760</v>
       </c>
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C38" s="3"/>
       <c r="D38" s="2" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="39" spans="2:4">
       <c r="B39" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="40" spans="2:4">
       <c r="B40" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="41" spans="2:4">
       <c r="B41" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="42" spans="2:4">
       <c r="B42" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="43" spans="2:4">
       <c r="B43" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="44" spans="2:4">
       <c r="B44" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C44" s="4"/>
+        <v>16</v>
+      </c>
       <c r="D44" s="2" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="45" spans="2:4">
       <c r="B45" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="46" spans="2:4">
       <c r="B46" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="C46" s="4"/>
       <c r="D46" s="2" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="47" spans="2:4">
       <c r="B47" s="2" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>766</v>
+        <v>715</v>
       </c>
     </row>
     <row r="48" spans="2:4">
       <c r="B48" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="B49" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="2" t="s">
+      <c r="C50" s="3"/>
+      <c r="D50" s="2" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="49" spans="2:2">
-      <c r="B49" s="2" t="s">
+    <row r="51" spans="2:4">
+      <c r="B51" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="2:2">
-      <c r="B50" s="2" t="s">
+    <row r="52" spans="2:4">
+      <c r="B52" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="2:2">
-      <c r="B51" s="2" t="s">
+    <row r="53" spans="2:4">
+      <c r="B53" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="2:2">
-      <c r="B52" s="2" t="s">
+    <row r="54" spans="2:4">
+      <c r="B54" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="2:2">
-      <c r="B53" s="2" t="s">
+    <row r="55" spans="2:4">
+      <c r="B55" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="2:2">
-      <c r="B54" s="2" t="s">
+    <row r="56" spans="2:4">
+      <c r="B56" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="2:2">
-      <c r="B55" s="2" t="s">
+    <row r="57" spans="2:4">
+      <c r="B57" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="2:2">
-      <c r="B56" s="2" t="s">
+    <row r="58" spans="2:4">
+      <c r="B58" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="2:2">
-      <c r="B57" s="2" t="s">
+    <row r="59" spans="2:4">
+      <c r="B59" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="58" spans="2:2">
-      <c r="B58" s="2" t="s">
+    <row r="60" spans="2:4">
+      <c r="B60" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="59" spans="2:2">
-      <c r="B59" s="2" t="s">
+    <row r="61" spans="2:4">
+      <c r="B61" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="2:2">
-      <c r="B60" s="2" t="s">
+    <row r="62" spans="2:4">
+      <c r="B62" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="2:2">
-      <c r="B61" s="2" t="s">
+    <row r="63" spans="2:4">
+      <c r="B63" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="62" spans="2:2">
-      <c r="B62" s="2" t="s">
+    <row r="64" spans="2:4">
+      <c r="B64" s="2" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2">
-      <c r="B63" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2">
-      <c r="B64" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="72" spans="2:2">
       <c r="B72" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -23171,12 +26915,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54198A9C-512B-7443-B33E-3EF1883ED4C8}">
   <dimension ref="B2:E79"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="114" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView topLeftCell="A2" zoomScale="114" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -23232,6 +26976,9 @@
       <c r="D9" t="s">
         <v>639</v>
       </c>
+      <c r="E9" t="s">
+        <v>822</v>
+      </c>
     </row>
     <row r="10" spans="2:5">
       <c r="C10" t="s">
@@ -23240,6 +26987,9 @@
       <c r="D10" s="2" t="s">
         <v>350</v>
       </c>
+      <c r="E10" t="s">
+        <v>823</v>
+      </c>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="2" t="s">
@@ -23251,6 +27001,9 @@
       <c r="D11" s="2" t="s">
         <v>642</v>
       </c>
+      <c r="E11" t="s">
+        <v>824</v>
+      </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="2" t="s">
@@ -23261,6 +27014,9 @@
       </c>
       <c r="D12" s="2" t="s">
         <v>352</v>
+      </c>
+      <c r="E12" t="s">
+        <v>825</v>
       </c>
     </row>
     <row r="13" spans="2:5">
@@ -23718,11 +27474,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EDDD20B-390F-8546-A6ED-4F42BC7CB991}">
   <dimension ref="B2:E79"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="114" workbookViewId="0">
+    <sheetView zoomScale="114" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -24232,11 +27988,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60FB2605-898C-2346-A762-E0BC47C7035C}">
   <dimension ref="B2:E79"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="114" workbookViewId="0">
+    <sheetView zoomScale="114" workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
@@ -24744,551 +28500,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC19751C-5296-0D40-9426-D47A368B6B2A}">
-  <dimension ref="B2:E79"/>
-  <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="114" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
-  <cols>
-    <col min="2" max="2" width="82" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="84.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="77.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:5">
-      <c r="B2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5">
-      <c r="B3" s="5" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5">
-      <c r="B4" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="2" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="2" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="2" t="s">
-        <v>650</v>
-      </c>
-      <c r="C9" t="s">
-        <v>621</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="C10" t="s">
-        <v>627</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="C11" t="s">
-        <v>629</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="C12" t="s">
-        <v>628</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="2" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5">
-      <c r="B14" s="2" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="B15" s="2"/>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="C18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="C20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="B25" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="B26" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="2" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="B27" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="2" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="B28" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4">
-      <c r="B29" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4">
-      <c r="B30" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4">
-      <c r="B31" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4">
-      <c r="B32" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4">
-      <c r="B35" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4">
-      <c r="B36" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4">
-      <c r="B37" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="2" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4">
-      <c r="B38" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4">
-      <c r="B39" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4">
-      <c r="B40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4">
-      <c r="B41" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="2" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4">
-      <c r="B42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4">
-      <c r="B43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4">
-      <c r="B44" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4">
-      <c r="B45" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4">
-      <c r="B46" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4">
-      <c r="B47" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4">
-      <c r="B48" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4">
-      <c r="B49" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="2" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4">
-      <c r="B50" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4">
-      <c r="B51" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4">
-      <c r="B52" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4">
-      <c r="B53" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C53" s="3"/>
-      <c r="D53" s="2" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4">
-      <c r="B54" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4">
-      <c r="B55" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4">
-      <c r="B56" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4">
-      <c r="B57" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4">
-      <c r="B58" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4">
-      <c r="B59" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4">
-      <c r="B60" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4">
-      <c r="B61" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4">
-      <c r="B62" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4">
-      <c r="B63" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4">
-      <c r="B64" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2">
-      <c r="B65" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2">
-      <c r="B66" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2">
-      <c r="B67" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2">
-      <c r="B68" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2">
-      <c r="B69" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2">
-      <c r="B70" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2">
-      <c r="B71" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2">
-      <c r="B72" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2">
-      <c r="B73" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="74" spans="2:2">
-      <c r="B74" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2">
-      <c r="B75" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="76" spans="2:2">
-      <c r="B76" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2">
-      <c r="B77" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="78" spans="2:2">
-      <c r="B78" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="79" spans="2:2">
-      <c r="B79" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/jop2_debug.xlsx
+++ b/jop2_debug.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seo/Documents/GitHub/jop_practice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5DBA306-AB21-374F-9A7D-BC2C601585C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A69ACB-9D74-F94D-8DCC-A09565C7EDD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" firstSheet="17" activeTab="27" xr2:uid="{72654644-330E-6241-8B3F-5340056A9D63}"/>
+    <workbookView xWindow="0" yWindow="2060" windowWidth="38400" windowHeight="21100" firstSheet="20" activeTab="29" xr2:uid="{72654644-330E-6241-8B3F-5340056A9D63}"/>
   </bookViews>
   <sheets>
     <sheet name="stack" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4747" uniqueCount="863">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4747" uniqueCount="865">
   <si>
     <t>__text:0000000100003D58                 BL              _my_call6</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2428,16 +2428,10 @@
     <t>        x0 = 0xdeadbeef41424340</t>
   </si>
   <si>
-    <t>        x1 = 0xdeadbeef41424341</t>
-  </si>
-  <si>
     <t>        x2 = 0xdeadbeef41424342</t>
   </si>
   <si>
     <t>        x3 = 0xdeadbeef41424343</t>
-  </si>
-  <si>
-    <t>        x4 = 0xdeadbeef41424344</t>
   </si>
   <si>
     <t>        x8 = 0xdeadbeef41424344</t>
@@ -2872,12 +2866,28 @@
     <t>x1 + 0x08</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>        x6 = 0xdeadbeef41424346</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>        x8 = 0xdeadbeef41424344</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>        x4 = 0xdeadbeef41424344</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>        x1 = 0xdeadbeef41424341</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2949,6 +2959,61 @@
       <name val="Menlo"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF929000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF40FF"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2972,7 +3037,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2994,12 +3059,44 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF7A81FF"/>
+      <color rgb="FFFF40FF"/>
+      <color rgb="FF00FDFF"/>
+      <color rgb="FF929000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -5898,8 +5995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC19751C-5296-0D40-9426-D47A368B6B2A}">
   <dimension ref="B2:E79"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView zoomScale="114" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -5956,7 +6053,7 @@
         <v>356</v>
       </c>
       <c r="E9" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="10" spans="2:5">
@@ -5967,7 +6064,7 @@
         <v>358</v>
       </c>
       <c r="E10" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -5981,7 +6078,7 @@
         <v>359</v>
       </c>
       <c r="E11" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -5995,7 +6092,7 @@
         <v>360</v>
       </c>
       <c r="E12" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="13" spans="2:5">
@@ -6051,7 +6148,7 @@
         <v>609</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="22" spans="2:4">
@@ -6101,7 +6198,7 @@
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="2" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="28" spans="2:4">
@@ -6109,14 +6206,14 @@
         <v>70</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="7" t="s">
         <v>695</v>
       </c>
     </row>
@@ -6125,7 +6222,7 @@
         <v>636</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="31" spans="2:4">
@@ -6157,14 +6254,14 @@
         <v>3</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="7" t="s">
         <v>701</v>
       </c>
     </row>
@@ -6198,7 +6295,7 @@
         <v>8</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="40" spans="2:4">
@@ -6457,7 +6554,3229 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA508E15-07A0-FF43-930C-B73888373201}">
   <dimension ref="B2:E81"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="114" workbookViewId="0">
+    <sheetView zoomScale="114" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="2" max="2" width="82" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="84.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="77.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5">
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="5" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="C20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="2" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="2" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="2" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="2" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="B42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="B46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="B47" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4">
+      <c r="B48" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="B49" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C49" s="4"/>
+      <c r="D49" s="2" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="B51" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4">
+      <c r="B52" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4">
+      <c r="B53" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="2" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4">
+      <c r="B54" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4">
+      <c r="B55" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4">
+      <c r="B56" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4">
+      <c r="B57" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4">
+      <c r="B58" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4">
+      <c r="B59" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4">
+      <c r="B60" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4">
+      <c r="B61" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4">
+      <c r="B62" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4">
+      <c r="B63" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4">
+      <c r="B64" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" s="2" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{719D7888-CDDB-7748-AC53-9C5F46DF1143}">
+  <dimension ref="B2:E81"/>
+  <sheetViews>
+    <sheetView zoomScale="114" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="2" max="2" width="82" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="84.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="77.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5">
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="5" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="2" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="C9" t="s">
+        <v>621</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="E9" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="C10" t="s">
+        <v>627</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="E10" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="C11" t="s">
+        <v>629</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E11" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="C12" t="s">
+        <v>628</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="E12" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="2" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="C20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="2" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="2" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="2" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="2" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="B42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="B46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="B47" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4">
+      <c r="B48" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="B49" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C49" s="4"/>
+      <c r="D49" s="2" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="B51" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4">
+      <c r="B52" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4">
+      <c r="B53" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="2" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4">
+      <c r="B54" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4">
+      <c r="B55" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4">
+      <c r="B56" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4">
+      <c r="B57" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4">
+      <c r="B58" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4">
+      <c r="B59" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4">
+      <c r="B60" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4">
+      <c r="B61" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4">
+      <c r="B62" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4">
+      <c r="B63" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4">
+      <c r="B64" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" s="2" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE7F58B1-F49D-EB45-BA34-DE9DE83E63C8}">
+  <dimension ref="B2:E81"/>
+  <sheetViews>
+    <sheetView zoomScale="114" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="2" max="2" width="82" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="84.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="77.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5">
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="5" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="C20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="2" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="2" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="2" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="2" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="B42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="B46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="B47" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4">
+      <c r="B48" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="B49" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C49" s="4"/>
+      <c r="D49" s="2" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="B51" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4">
+      <c r="B52" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4">
+      <c r="B53" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="2" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4">
+      <c r="B54" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4">
+      <c r="B55" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4">
+      <c r="B56" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4">
+      <c r="B57" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4">
+      <c r="B58" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4">
+      <c r="B59" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4">
+      <c r="B60" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4">
+      <c r="B61" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4">
+      <c r="B62" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4">
+      <c r="B63" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4">
+      <c r="B64" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" s="2"/>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CA8452A-A008-1C44-85AC-CD22BA2CA3C0}">
+  <dimension ref="B2:E81"/>
+  <sheetViews>
+    <sheetView zoomScale="114" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="2" max="2" width="82" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="84.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="77.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5">
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="5" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="C20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="2" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="2" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="2" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="2" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="B42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="B46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="B47" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4">
+      <c r="B48" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="B49" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C49" s="4"/>
+      <c r="D49" s="2" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="B51" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4">
+      <c r="B52" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4">
+      <c r="B53" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="2" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4">
+      <c r="B54" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4">
+      <c r="B55" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4">
+      <c r="B56" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4">
+      <c r="B57" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4">
+      <c r="B58" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4">
+      <c r="B59" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4">
+      <c r="B60" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4">
+      <c r="B61" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4">
+      <c r="B62" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4">
+      <c r="B63" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4">
+      <c r="B64" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" s="2"/>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB52362D-B054-6F49-AFF9-202959E9B8F3}">
+  <dimension ref="B2:E81"/>
+  <sheetViews>
+    <sheetView zoomScale="114" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="2" max="2" width="82" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="84.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="77.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5">
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="5" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="2" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="C9" t="s">
+        <v>621</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="E9" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="C10" t="s">
+        <v>627</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="E10" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="C11" t="s">
+        <v>629</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="E11" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="C12" t="s">
+        <v>628</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="E12" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="2" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="C20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="2" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="2" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="2" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="2" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="B42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="B46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="B47" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4">
+      <c r="B48" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="B49" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C49" s="4"/>
+      <c r="D49" s="2" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="B51" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4">
+      <c r="B52" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4">
+      <c r="B53" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="2" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4">
+      <c r="B54" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4">
+      <c r="B55" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4">
+      <c r="B56" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4">
+      <c r="B57" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4">
+      <c r="B58" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4">
+      <c r="B59" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4">
+      <c r="B60" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4">
+      <c r="B61" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4">
+      <c r="B62" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4">
+      <c r="B63" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4">
+      <c r="B64" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" s="2"/>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{700A9BDF-964F-DE44-AA9F-94CB54421143}">
+  <dimension ref="B2:E81"/>
+  <sheetViews>
+    <sheetView zoomScale="114" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="2" max="2" width="82" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="84.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="77.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5">
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="5" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="C20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="2" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="8" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="2" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="2" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="B42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="B46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="B47" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4">
+      <c r="B48" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="B49" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C49" s="4"/>
+      <c r="D49" s="2" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="B51" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4">
+      <c r="B52" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4">
+      <c r="B53" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="2" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4">
+      <c r="B54" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4">
+      <c r="B55" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4">
+      <c r="B56" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4">
+      <c r="B57" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4">
+      <c r="B58" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4">
+      <c r="B59" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4">
+      <c r="B60" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4">
+      <c r="B61" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4">
+      <c r="B62" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4">
+      <c r="B63" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4">
+      <c r="B64" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" s="2"/>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BE32EA9-7DA4-D44D-BDB3-6A39046DBF62}">
+  <dimension ref="B2:E81"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScale="114" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -6476,12 +9795,12 @@
     </row>
     <row r="3" spans="2:5">
       <c r="B3" s="5" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="2" t="s">
-        <v>765</v>
+        <v>792</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -6500,13 +9819,13 @@
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="2" t="s">
-        <v>648</v>
+        <v>667</v>
       </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D10" s="2"/>
     </row>
@@ -6567,7 +9886,7 @@
         <v>609</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>776</v>
+        <v>793</v>
       </c>
     </row>
     <row r="22" spans="2:4">
@@ -6575,7 +9894,7 @@
         <v>64</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>689</v>
+        <v>787</v>
       </c>
     </row>
     <row r="23" spans="2:4">
@@ -6591,7 +9910,7 @@
         <v>66</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>691</v>
+        <v>788</v>
       </c>
     </row>
     <row r="25" spans="2:4">
@@ -6616,23 +9935,23 @@
         <v>69</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="2" t="s">
-        <v>753</v>
+      <c r="D27" s="8" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>777</v>
+      <c r="D28" s="8" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="7" t="s">
         <v>695</v>
       </c>
     </row>
@@ -6641,7 +9960,7 @@
         <v>652</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>756</v>
+        <v>784</v>
       </c>
     </row>
     <row r="31" spans="2:4">
@@ -6673,14 +9992,14 @@
         <v>3</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>757</v>
+        <v>781</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="7" t="s">
         <v>701</v>
       </c>
     </row>
@@ -6714,7 +10033,7 @@
         <v>8</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="40" spans="2:4">
@@ -6820,7 +10139,7 @@
         <v>653</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>766</v>
+        <v>794</v>
       </c>
     </row>
     <row r="53" spans="2:4">
@@ -6963,14 +10282,10 @@
       </c>
     </row>
     <row r="80" spans="2:2">
-      <c r="B80" s="2" t="s">
-        <v>654</v>
-      </c>
+      <c r="B80" s="2"/>
     </row>
     <row r="81" spans="2:2">
-      <c r="B81" s="2" t="s">
-        <v>655</v>
-      </c>
+      <c r="B81" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6978,12 +10293,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{719D7888-CDDB-7748-AC53-9C5F46DF1143}">
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEDAF979-D3AC-EF4E-89D4-C0915FED6C96}">
   <dimension ref="B2:E81"/>
   <sheetViews>
     <sheetView zoomScale="114" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -7031,16 +10346,16 @@
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="2" t="s">
-        <v>656</v>
+        <v>676</v>
       </c>
       <c r="C9" t="s">
         <v>621</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="E9" t="s">
-        <v>830</v>
+        <v>839</v>
       </c>
     </row>
     <row r="10" spans="2:5">
@@ -7048,48 +10363,48 @@
         <v>627</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="E10" t="s">
-        <v>831</v>
+        <v>836</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="2" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="C11" t="s">
         <v>629</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
       <c r="E11" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="2" t="s">
-        <v>659</v>
+        <v>678</v>
       </c>
       <c r="C12" t="s">
         <v>628</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>640</v>
+        <v>384</v>
       </c>
       <c r="E12" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="2" t="s">
-        <v>657</v>
+        <v>677</v>
       </c>
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="2" t="s">
-        <v>634</v>
+        <v>679</v>
       </c>
     </row>
     <row r="15" spans="2:5">
@@ -7135,7 +10450,7 @@
         <v>609</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>778</v>
+        <v>795</v>
       </c>
     </row>
     <row r="22" spans="2:4">
@@ -7143,7 +10458,7 @@
         <v>64</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>779</v>
+        <v>689</v>
       </c>
     </row>
     <row r="23" spans="2:4">
@@ -7151,7 +10466,7 @@
         <v>65</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>780</v>
+        <v>690</v>
       </c>
     </row>
     <row r="24" spans="2:4">
@@ -7159,7 +10474,7 @@
         <v>66</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>722</v>
+        <v>691</v>
       </c>
     </row>
     <row r="25" spans="2:4">
@@ -7184,8 +10499,8 @@
         <v>69</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="2" t="s">
-        <v>753</v>
+      <c r="D27" s="8" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="28" spans="2:4">
@@ -7193,14 +10508,14 @@
         <v>70</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>781</v>
+        <v>796</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="7" t="s">
         <v>695</v>
       </c>
     </row>
@@ -7209,7 +10524,7 @@
         <v>652</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>756</v>
+        <v>784</v>
       </c>
     </row>
     <row r="31" spans="2:4">
@@ -7241,14 +10556,14 @@
         <v>3</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>757</v>
+        <v>781</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="7" t="s">
         <v>701</v>
       </c>
     </row>
@@ -7282,7 +10597,7 @@
         <v>8</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="40" spans="2:4">
@@ -7531,14 +10846,10 @@
       </c>
     </row>
     <row r="80" spans="2:2">
-      <c r="B80" s="2" t="s">
-        <v>654</v>
-      </c>
+      <c r="B80" s="2"/>
     </row>
     <row r="81" spans="2:2">
-      <c r="B81" s="2" t="s">
-        <v>655</v>
-      </c>
+      <c r="B81" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7547,12 +10858,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE7F58B1-F49D-EB45-BA34-DE9DE83E63C8}">
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE58327-4866-794A-9ACF-4638133CDE49}">
   <dimension ref="B2:E81"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="114" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView topLeftCell="A15" zoomScale="114" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -7570,12 +10881,12 @@
     </row>
     <row r="3" spans="2:5">
       <c r="B3" s="5" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="2" t="s">
-        <v>782</v>
+        <v>763</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -7594,13 +10905,13 @@
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="2" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="2" t="s">
-        <v>658</v>
+        <v>623</v>
       </c>
       <c r="D10" s="2"/>
     </row>
@@ -7661,7 +10972,7 @@
         <v>609</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>778</v>
+        <v>795</v>
       </c>
     </row>
     <row r="22" spans="2:4">
@@ -7669,7 +10980,7 @@
         <v>64</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>779</v>
+        <v>689</v>
       </c>
     </row>
     <row r="23" spans="2:4">
@@ -7677,7 +10988,7 @@
         <v>65</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>780</v>
+        <v>690</v>
       </c>
     </row>
     <row r="24" spans="2:4">
@@ -7685,7 +10996,7 @@
         <v>66</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>722</v>
+        <v>691</v>
       </c>
     </row>
     <row r="25" spans="2:4">
@@ -7710,8 +11021,8 @@
         <v>69</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="2" t="s">
-        <v>753</v>
+      <c r="D27" s="8" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="28" spans="2:4">
@@ -7719,14 +11030,14 @@
         <v>70</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>781</v>
+        <v>796</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="7" t="s">
         <v>695</v>
       </c>
     </row>
@@ -7735,7 +11046,7 @@
         <v>652</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>756</v>
+        <v>784</v>
       </c>
     </row>
     <row r="31" spans="2:4">
@@ -7767,14 +11078,14 @@
         <v>3</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="7" t="s">
         <v>701</v>
       </c>
     </row>
@@ -7808,7 +11119,7 @@
         <v>8</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="40" spans="2:4">
@@ -7914,3221 +11225,7 @@
         <v>653</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4">
-      <c r="B53" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C53" s="3"/>
-      <c r="D53" s="2" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4">
-      <c r="B54" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4">
-      <c r="B55" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4">
-      <c r="B56" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4">
-      <c r="B57" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4">
-      <c r="B58" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4">
-      <c r="B59" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4">
-      <c r="B60" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4">
-      <c r="B61" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4">
-      <c r="B62" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4">
-      <c r="B63" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4">
-      <c r="B64" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2">
-      <c r="B65" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2">
-      <c r="B66" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2">
-      <c r="B67" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2">
-      <c r="B68" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2">
-      <c r="B69" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2">
-      <c r="B70" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2">
-      <c r="B71" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2">
-      <c r="B72" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2">
-      <c r="B73" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="74" spans="2:2">
-      <c r="B74" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2">
-      <c r="B75" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="76" spans="2:2">
-      <c r="B76" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2">
-      <c r="B77" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="78" spans="2:2">
-      <c r="B78" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="79" spans="2:2">
-      <c r="B79" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2">
-      <c r="B80" s="2"/>
-    </row>
-    <row r="81" spans="2:2">
-      <c r="B81" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CA8452A-A008-1C44-85AC-CD22BA2CA3C0}">
-  <dimension ref="B2:E81"/>
-  <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="114" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
-  <cols>
-    <col min="2" max="2" width="82" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="84.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="77.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:5">
-      <c r="B2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5">
-      <c r="B3" s="5" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5">
-      <c r="B4" s="2" t="s">
-        <v>785</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="2" t="s">
-        <v>661</v>
-      </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="2"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="2"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="2:5">
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="B15" s="2"/>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="C18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="C20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="B25" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="B26" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="2" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="B27" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="2" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="B28" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4">
-      <c r="B29" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4">
-      <c r="B30" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4">
-      <c r="B31" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4">
-      <c r="B32" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4">
-      <c r="B35" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4">
-      <c r="B36" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4">
-      <c r="B37" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="2" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4">
-      <c r="B38" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4">
-      <c r="B39" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4">
-      <c r="B40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4">
-      <c r="B41" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="2" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4">
-      <c r="B42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4">
-      <c r="B43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4">
-      <c r="B44" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4">
-      <c r="B45" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4">
-      <c r="B46" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4">
-      <c r="B47" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4">
-      <c r="B48" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4">
-      <c r="B49" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="2" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4">
-      <c r="B50" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4">
-      <c r="B51" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4">
-      <c r="B52" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4">
-      <c r="B53" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C53" s="3"/>
-      <c r="D53" s="2" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4">
-      <c r="B54" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4">
-      <c r="B55" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4">
-      <c r="B56" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4">
-      <c r="B57" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4">
-      <c r="B58" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4">
-      <c r="B59" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4">
-      <c r="B60" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4">
-      <c r="B61" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4">
-      <c r="B62" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4">
-      <c r="B63" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4">
-      <c r="B64" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2">
-      <c r="B65" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2">
-      <c r="B66" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2">
-      <c r="B67" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2">
-      <c r="B68" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2">
-      <c r="B69" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2">
-      <c r="B70" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2">
-      <c r="B71" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2">
-      <c r="B72" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2">
-      <c r="B73" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="74" spans="2:2">
-      <c r="B74" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2">
-      <c r="B75" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="76" spans="2:2">
-      <c r="B76" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2">
-      <c r="B77" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="78" spans="2:2">
-      <c r="B78" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="79" spans="2:2">
-      <c r="B79" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2">
-      <c r="B80" s="2"/>
-    </row>
-    <row r="81" spans="2:2">
-      <c r="B81" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB52362D-B054-6F49-AFF9-202959E9B8F3}">
-  <dimension ref="B2:E81"/>
-  <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
-  <cols>
-    <col min="2" max="2" width="82" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="84.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="77.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:5">
-      <c r="B2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5">
-      <c r="B3" s="5" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5">
-      <c r="B4" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="2" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="2" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="C9" t="s">
-        <v>621</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="E9" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="C10" t="s">
-        <v>627</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="E10" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="C11" t="s">
-        <v>629</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="E11" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="2" t="s">
-        <v>664</v>
-      </c>
-      <c r="C12" t="s">
-        <v>628</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="E12" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="2" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5">
-      <c r="B14" s="2" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="B15" s="2"/>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="C18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="C20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="B25" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="B26" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="2" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="B27" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="2" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="B28" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4">
-      <c r="B29" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4">
-      <c r="B30" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4">
-      <c r="B31" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4">
-      <c r="B32" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4">
-      <c r="B35" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4">
-      <c r="B36" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4">
-      <c r="B37" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="2" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4">
-      <c r="B38" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4">
-      <c r="B39" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4">
-      <c r="B40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4">
-      <c r="B41" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="2" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4">
-      <c r="B42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4">
-      <c r="B43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4">
-      <c r="B44" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4">
-      <c r="B45" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4">
-      <c r="B46" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4">
-      <c r="B47" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4">
-      <c r="B48" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4">
-      <c r="B49" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="2" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4">
-      <c r="B50" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4">
-      <c r="B51" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4">
-      <c r="B52" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4">
-      <c r="B53" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C53" s="3"/>
-      <c r="D53" s="2" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4">
-      <c r="B54" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4">
-      <c r="B55" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4">
-      <c r="B56" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4">
-      <c r="B57" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4">
-      <c r="B58" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4">
-      <c r="B59" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4">
-      <c r="B60" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4">
-      <c r="B61" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4">
-      <c r="B62" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4">
-      <c r="B63" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4">
-      <c r="B64" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2">
-      <c r="B65" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2">
-      <c r="B66" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2">
-      <c r="B67" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2">
-      <c r="B68" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2">
-      <c r="B69" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2">
-      <c r="B70" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2">
-      <c r="B71" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2">
-      <c r="B72" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2">
-      <c r="B73" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="74" spans="2:2">
-      <c r="B74" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2">
-      <c r="B75" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="76" spans="2:2">
-      <c r="B76" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2">
-      <c r="B77" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="78" spans="2:2">
-      <c r="B78" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="79" spans="2:2">
-      <c r="B79" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2">
-      <c r="B80" s="2"/>
-    </row>
-    <row r="81" spans="2:2">
-      <c r="B81" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{700A9BDF-964F-DE44-AA9F-94CB54421143}">
-  <dimension ref="B2:E81"/>
-  <sheetViews>
-    <sheetView zoomScale="114" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
-  <cols>
-    <col min="2" max="2" width="82" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="84.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="77.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:5">
-      <c r="B2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5">
-      <c r="B3" s="5" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5">
-      <c r="B4" s="2" t="s">
-        <v>792</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="2" t="s">
-        <v>665</v>
-      </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="2" t="s">
-        <v>666</v>
-      </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="2"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="2"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="2:5">
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="B15" s="2"/>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="C18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="C20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="B25" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="B26" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="2" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="B27" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="2" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="B28" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4">
-      <c r="B29" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4">
-      <c r="B30" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4">
-      <c r="B31" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4">
-      <c r="B32" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4">
-      <c r="B35" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4">
-      <c r="B36" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4">
-      <c r="B37" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="2" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4">
-      <c r="B38" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4">
-      <c r="B39" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4">
-      <c r="B40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4">
-      <c r="B41" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="2" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4">
-      <c r="B42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4">
-      <c r="B43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4">
-      <c r="B44" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4">
-      <c r="B45" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4">
-      <c r="B46" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4">
-      <c r="B47" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4">
-      <c r="B48" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4">
-      <c r="B49" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="2" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4">
-      <c r="B50" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4">
-      <c r="B51" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4">
-      <c r="B52" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4">
-      <c r="B53" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C53" s="3"/>
-      <c r="D53" s="2" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4">
-      <c r="B54" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4">
-      <c r="B55" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4">
-      <c r="B56" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4">
-      <c r="B57" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4">
-      <c r="B58" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4">
-      <c r="B59" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4">
-      <c r="B60" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4">
-      <c r="B61" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4">
-      <c r="B62" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4">
-      <c r="B63" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4">
-      <c r="B64" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2">
-      <c r="B65" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2">
-      <c r="B66" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2">
-      <c r="B67" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2">
-      <c r="B68" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2">
-      <c r="B69" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2">
-      <c r="B70" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2">
-      <c r="B71" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2">
-      <c r="B72" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2">
-      <c r="B73" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="74" spans="2:2">
-      <c r="B74" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2">
-      <c r="B75" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="76" spans="2:2">
-      <c r="B76" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2">
-      <c r="B77" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="78" spans="2:2">
-      <c r="B78" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="79" spans="2:2">
-      <c r="B79" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2">
-      <c r="B80" s="2"/>
-    </row>
-    <row r="81" spans="2:2">
-      <c r="B81" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BE32EA9-7DA4-D44D-BDB3-6A39046DBF62}">
-  <dimension ref="B2:E81"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="114" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
-  <cols>
-    <col min="2" max="2" width="82" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="84.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="77.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:5">
-      <c r="B2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5">
-      <c r="B3" s="5" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5">
-      <c r="B4" s="2" t="s">
-        <v>794</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="2"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="2"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="2:5">
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="B15" s="2"/>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="C18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="C20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="B25" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="B26" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="2" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="B27" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="2" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="B28" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4">
-      <c r="B29" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4">
-      <c r="B30" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4">
-      <c r="B31" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4">
-      <c r="B32" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4">
-      <c r="B35" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4">
-      <c r="B36" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4">
-      <c r="B37" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="2" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4">
-      <c r="B38" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4">
-      <c r="B39" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4">
-      <c r="B40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4">
-      <c r="B41" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="2" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4">
-      <c r="B42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4">
-      <c r="B43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4">
-      <c r="B44" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4">
-      <c r="B45" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4">
-      <c r="B46" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4">
-      <c r="B47" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4">
-      <c r="B48" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4">
-      <c r="B49" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="2" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4">
-      <c r="B50" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4">
-      <c r="B51" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4">
-      <c r="B52" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4">
-      <c r="B53" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C53" s="3"/>
-      <c r="D53" s="2" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4">
-      <c r="B54" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4">
-      <c r="B55" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4">
-      <c r="B56" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4">
-      <c r="B57" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4">
-      <c r="B58" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4">
-      <c r="B59" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4">
-      <c r="B60" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4">
-      <c r="B61" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4">
-      <c r="B62" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4">
-      <c r="B63" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4">
-      <c r="B64" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2">
-      <c r="B65" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2">
-      <c r="B66" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2">
-      <c r="B67" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2">
-      <c r="B68" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2">
-      <c r="B69" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2">
-      <c r="B70" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2">
-      <c r="B71" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2">
-      <c r="B72" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2">
-      <c r="B73" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="74" spans="2:2">
-      <c r="B74" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2">
-      <c r="B75" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="76" spans="2:2">
-      <c r="B76" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2">
-      <c r="B77" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="78" spans="2:2">
-      <c r="B78" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="79" spans="2:2">
-      <c r="B79" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2">
-      <c r="B80" s="2"/>
-    </row>
-    <row r="81" spans="2:2">
-      <c r="B81" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEDAF979-D3AC-EF4E-89D4-C0915FED6C96}">
-  <dimension ref="B2:E81"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
-  <cols>
-    <col min="2" max="2" width="82" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="84.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="77.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:5">
-      <c r="B2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5">
-      <c r="B3" s="5" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5">
-      <c r="B4" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="2" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="2" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="C9" t="s">
-        <v>621</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="E9" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="C10" t="s">
-        <v>627</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="E10" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="C11" t="s">
-        <v>629</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E11" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="C12" t="s">
-        <v>628</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="E12" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="2" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5">
-      <c r="B14" s="2" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="B15" s="2"/>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="C18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="C20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="B25" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="B26" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="2" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="B27" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="2" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="B28" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4">
-      <c r="B29" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4">
-      <c r="B30" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4">
-      <c r="B31" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4">
-      <c r="B32" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4">
-      <c r="B35" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4">
-      <c r="B36" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4">
-      <c r="B37" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="2" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4">
-      <c r="B38" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4">
-      <c r="B39" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4">
-      <c r="B40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4">
-      <c r="B41" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="2" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4">
-      <c r="B42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4">
-      <c r="B43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4">
-      <c r="B44" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4">
-      <c r="B45" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4">
-      <c r="B46" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4">
-      <c r="B47" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4">
-      <c r="B48" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4">
-      <c r="B49" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="2" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4">
-      <c r="B50" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4">
-      <c r="B51" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4">
-      <c r="B52" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4">
-      <c r="B53" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C53" s="3"/>
-      <c r="D53" s="2" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4">
-      <c r="B54" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4">
-      <c r="B55" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4">
-      <c r="B56" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4">
-      <c r="B57" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4">
-      <c r="B58" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4">
-      <c r="B59" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4">
-      <c r="B60" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4">
-      <c r="B61" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4">
-      <c r="B62" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4">
-      <c r="B63" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4">
-      <c r="B64" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2">
-      <c r="B65" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2">
-      <c r="B66" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2">
-      <c r="B67" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2">
-      <c r="B68" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2">
-      <c r="B69" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2">
-      <c r="B70" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2">
-      <c r="B71" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2">
-      <c r="B72" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2">
-      <c r="B73" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="74" spans="2:2">
-      <c r="B74" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2">
-      <c r="B75" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="76" spans="2:2">
-      <c r="B76" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2">
-      <c r="B77" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="78" spans="2:2">
-      <c r="B78" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="79" spans="2:2">
-      <c r="B79" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2">
-      <c r="B80" s="2"/>
-    </row>
-    <row r="81" spans="2:2">
-      <c r="B81" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE58327-4866-794A-9ACF-4638133CDE49}">
-  <dimension ref="B2:E81"/>
-  <sheetViews>
-    <sheetView zoomScale="114" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
-  <cols>
-    <col min="2" max="2" width="82" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="84.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="77.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:5">
-      <c r="B2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5">
-      <c r="B3" s="5" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5">
-      <c r="B4" s="2" t="s">
-        <v>765</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="2"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="2"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="2:5">
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="B15" s="2"/>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="C18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="C20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="B25" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="B26" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="2" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="B27" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="2" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="B28" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4">
-      <c r="B29" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4">
-      <c r="B30" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4">
-      <c r="B31" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4">
-      <c r="B32" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4">
-      <c r="B35" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4">
-      <c r="B36" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4">
-      <c r="B37" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="2" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4">
-      <c r="B38" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4">
-      <c r="B39" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4">
-      <c r="B40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4">
-      <c r="B41" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="2" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4">
-      <c r="B42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4">
-      <c r="B43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4">
-      <c r="B44" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4">
-      <c r="B45" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4">
-      <c r="B46" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4">
-      <c r="B47" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4">
-      <c r="B48" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4">
-      <c r="B49" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="2" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4">
-      <c r="B50" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4">
-      <c r="B51" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4">
-      <c r="B52" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="53" spans="2:4">
@@ -11690,8 +11787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B430445-9448-1544-9AE1-3DD7D33100C7}">
   <dimension ref="B2:E81"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="A12" zoomScale="114" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -11748,7 +11845,7 @@
         <v>388</v>
       </c>
       <c r="E9" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="10" spans="2:5">
@@ -11759,7 +11856,7 @@
         <v>390</v>
       </c>
       <c r="E10" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -11773,7 +11870,7 @@
         <v>391</v>
       </c>
       <c r="E11" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -11787,7 +11884,7 @@
         <v>392</v>
       </c>
       <c r="E12" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="13" spans="2:5">
@@ -11843,7 +11940,7 @@
         <v>609</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="22" spans="2:4">
@@ -11851,7 +11948,7 @@
         <v>64</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="23" spans="2:4">
@@ -11859,7 +11956,7 @@
         <v>65</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="24" spans="2:4">
@@ -11892,7 +11989,7 @@
         <v>69</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="8" t="s">
         <v>694</v>
       </c>
     </row>
@@ -11901,14 +11998,14 @@
         <v>70</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="7" t="s">
         <v>695</v>
       </c>
     </row>
@@ -11917,7 +12014,7 @@
         <v>652</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="31" spans="2:4">
@@ -11949,14 +12046,14 @@
         <v>3</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="7" t="s">
         <v>701</v>
       </c>
     </row>
@@ -11990,7 +12087,7 @@
         <v>8</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="40" spans="2:4">
@@ -12255,8 +12352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{214EE0A4-54B0-CA44-94AB-8E63F4031E64}">
   <dimension ref="B2:E81"/>
   <sheetViews>
-    <sheetView zoomScale="114" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A19" zoomScale="114" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -12279,7 +12376,7 @@
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="2" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -12365,7 +12462,7 @@
         <v>609</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="22" spans="2:4">
@@ -12373,7 +12470,7 @@
         <v>64</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="23" spans="2:4">
@@ -12381,7 +12478,7 @@
         <v>65</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="24" spans="2:4">
@@ -12414,7 +12511,7 @@
         <v>69</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="8" t="s">
         <v>694</v>
       </c>
     </row>
@@ -12423,14 +12520,14 @@
         <v>70</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="7" t="s">
         <v>695</v>
       </c>
     </row>
@@ -12439,7 +12536,7 @@
         <v>652</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="31" spans="2:4">
@@ -12478,7 +12575,7 @@
       <c r="B35" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="7" t="s">
         <v>701</v>
       </c>
     </row>
@@ -12512,7 +12609,7 @@
         <v>8</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="40" spans="2:4">
@@ -12618,7 +12715,7 @@
         <v>653</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="53" spans="2:4">
@@ -12776,8 +12873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B710822-787C-F349-B691-B32A14D0128C}">
   <dimension ref="B2:E81"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="114" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A8" zoomScale="114" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -12800,7 +12897,7 @@
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="2" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -12886,7 +12983,7 @@
         <v>609</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="22" spans="2:4">
@@ -12894,7 +12991,7 @@
         <v>64</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="23" spans="2:4">
@@ -12902,7 +12999,7 @@
         <v>65</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="24" spans="2:4">
@@ -12935,7 +13032,7 @@
         <v>69</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="8" t="s">
         <v>694</v>
       </c>
     </row>
@@ -12944,14 +13041,14 @@
         <v>70</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="7" t="s">
         <v>695</v>
       </c>
     </row>
@@ -12999,7 +13096,7 @@
       <c r="B35" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="7" t="s">
         <v>701</v>
       </c>
     </row>
@@ -13033,7 +13130,7 @@
         <v>8</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="40" spans="2:4">
@@ -13139,7 +13236,7 @@
         <v>653</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="53" spans="2:4">
@@ -13297,8 +13394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F892F70-E5F4-F548-8BA1-315F1D446238}">
   <dimension ref="B2:E81"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView zoomScale="114" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -13355,7 +13452,7 @@
         <v>396</v>
       </c>
       <c r="E9" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="10" spans="2:5">
@@ -13366,7 +13463,7 @@
         <v>398</v>
       </c>
       <c r="E10" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -13380,7 +13477,7 @@
         <v>399</v>
       </c>
       <c r="E11" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -13394,7 +13491,7 @@
         <v>400</v>
       </c>
       <c r="E12" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="13" spans="2:5">
@@ -13450,7 +13547,7 @@
         <v>609</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="22" spans="2:4">
@@ -13499,7 +13596,7 @@
         <v>69</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="8" t="s">
         <v>694</v>
       </c>
     </row>
@@ -13508,14 +13605,14 @@
         <v>70</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="7" t="s">
         <v>695</v>
       </c>
     </row>
@@ -13563,7 +13660,7 @@
       <c r="B35" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="7" t="s">
         <v>701</v>
       </c>
     </row>
@@ -13597,7 +13694,7 @@
         <v>8</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="40" spans="2:4">
@@ -13862,8 +13959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73DEF51B-C4B4-3B4F-9E35-611C1D9CA875}">
   <dimension ref="B2:E81"/>
   <sheetViews>
-    <sheetView zoomScale="114" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A6" zoomScale="114" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -13886,7 +13983,7 @@
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="2" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -13972,7 +14069,7 @@
         <v>609</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="22" spans="2:4">
@@ -14021,7 +14118,7 @@
         <v>69</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="8" t="s">
         <v>694</v>
       </c>
     </row>
@@ -14030,14 +14127,14 @@
         <v>70</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="7" t="s">
         <v>695</v>
       </c>
     </row>
@@ -14085,7 +14182,7 @@
       <c r="B35" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="7" t="s">
         <v>701</v>
       </c>
     </row>
@@ -14119,7 +14216,7 @@
         <v>8</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="40" spans="2:4">
@@ -14225,7 +14322,7 @@
         <v>653</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="53" spans="2:4">
@@ -14387,8 +14484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A87F6DE-1797-E74B-8DC7-6A25DD169A8D}">
   <dimension ref="B2:E81"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView zoomScale="114" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -14445,7 +14542,7 @@
         <v>404</v>
       </c>
       <c r="E9" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="10" spans="2:5">
@@ -14456,7 +14553,7 @@
         <v>406</v>
       </c>
       <c r="E10" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -14470,7 +14567,7 @@
         <v>407</v>
       </c>
       <c r="E11" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -14484,7 +14581,7 @@
         <v>408</v>
       </c>
       <c r="E12" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="13" spans="2:5">
@@ -14540,7 +14637,7 @@
         <v>609</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="22" spans="2:4">
@@ -14589,7 +14686,7 @@
         <v>69</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="8" t="s">
         <v>694</v>
       </c>
     </row>
@@ -14598,14 +14695,14 @@
         <v>70</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="7" t="s">
         <v>695</v>
       </c>
     </row>
@@ -14653,7 +14750,7 @@
       <c r="B35" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="7" t="s">
         <v>701</v>
       </c>
     </row>
@@ -14687,7 +14784,7 @@
         <v>8</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="40" spans="2:4">
@@ -14953,7 +15050,7 @@
   <dimension ref="B2:E81"/>
   <sheetViews>
     <sheetView zoomScale="114" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -14976,7 +15073,7 @@
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="2" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -15062,7 +15159,7 @@
         <v>609</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="22" spans="2:4">
@@ -15111,7 +15208,7 @@
         <v>69</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="8" t="s">
         <v>694</v>
       </c>
     </row>
@@ -15120,14 +15217,14 @@
         <v>70</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="7" t="s">
         <v>695</v>
       </c>
     </row>
@@ -15168,14 +15265,14 @@
         <v>3</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="7" t="s">
         <v>701</v>
       </c>
     </row>
@@ -15209,7 +15306,7 @@
         <v>8</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="40" spans="2:4">
@@ -15315,7 +15412,7 @@
         <v>653</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="53" spans="2:4">
@@ -15473,8 +15570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BB802BA-F68B-474A-BC2B-B74420AA1344}">
   <dimension ref="B2:E81"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="114" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A7" zoomScale="114" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -15497,7 +15594,7 @@
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="2" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -15583,7 +15680,7 @@
         <v>609</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="22" spans="2:4">
@@ -15632,7 +15729,7 @@
         <v>69</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="8" t="s">
         <v>694</v>
       </c>
     </row>
@@ -15641,14 +15738,14 @@
         <v>70</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="7" t="s">
         <v>695</v>
       </c>
     </row>
@@ -15681,7 +15778,7 @@
         <v>75</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="34" spans="2:4">
@@ -15689,14 +15786,14 @@
         <v>3</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="7" t="s">
         <v>701</v>
       </c>
     </row>
@@ -15730,7 +15827,7 @@
         <v>8</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="40" spans="2:4">
@@ -15836,7 +15933,7 @@
         <v>653</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="53" spans="2:4">
@@ -15994,8 +16091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40BA8FCD-61DC-354C-81C4-E6F42D78585B}">
   <dimension ref="B2:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView zoomScale="114" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -16052,7 +16149,7 @@
         <v>412</v>
       </c>
       <c r="E9" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="10" spans="2:5">
@@ -16060,10 +16157,10 @@
         <v>627</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="E10" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -16074,10 +16171,10 @@
         <v>629</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="E11" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -16091,7 +16188,7 @@
         <v>416</v>
       </c>
       <c r="E12" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="13" spans="2:5">
@@ -16099,13 +16196,13 @@
         <v>732</v>
       </c>
       <c r="C13" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E13" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="14" spans="2:5">
@@ -16147,7 +16244,7 @@
       <c r="C20" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="10" t="s">
         <v>740</v>
       </c>
     </row>
@@ -16155,24 +16252,24 @@
       <c r="B21" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>808</v>
+      <c r="D21" s="11" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>742</v>
+      <c r="D22" s="12" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>743</v>
+      <c r="D23" s="13" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="24" spans="2:4">
@@ -16180,7 +16277,7 @@
         <v>66</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="25" spans="2:4">
@@ -16196,8 +16293,8 @@
         <v>68</v>
       </c>
       <c r="C26" s="3"/>
-      <c r="D26" s="2" t="s">
-        <v>693</v>
+      <c r="D26" s="14" t="s">
+        <v>861</v>
       </c>
     </row>
     <row r="27" spans="2:4">
@@ -16205,7 +16302,7 @@
         <v>69</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="8" t="s">
         <v>694</v>
       </c>
     </row>
@@ -16213,15 +16310,15 @@
       <c r="B28" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>745</v>
+      <c r="D28" s="9" t="s">
+        <v>862</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="7" t="s">
         <v>695</v>
       </c>
     </row>
@@ -16254,7 +16351,7 @@
         <v>75</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="34" spans="2:4">
@@ -16262,14 +16359,14 @@
         <v>3</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="7" t="s">
         <v>701</v>
       </c>
     </row>
@@ -16303,7 +16400,7 @@
         <v>8</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="40" spans="2:4">
@@ -16569,7 +16666,7 @@
   <dimension ref="B2:E81"/>
   <sheetViews>
     <sheetView zoomScale="114" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D22" sqref="D22:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -16592,7 +16689,7 @@
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -16669,7 +16766,7 @@
       <c r="C20" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="10" t="s">
         <v>740</v>
       </c>
     </row>
@@ -16677,32 +16774,32 @@
       <c r="B21" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>808</v>
+      <c r="D21" s="11" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>742</v>
+      <c r="D22" s="12" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>743</v>
+      <c r="D23" s="13" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>744</v>
+      <c r="D24" s="9" t="s">
+        <v>863</v>
       </c>
     </row>
     <row r="25" spans="2:4">
@@ -16718,8 +16815,8 @@
         <v>68</v>
       </c>
       <c r="C26" s="3"/>
-      <c r="D26" s="2" t="s">
-        <v>693</v>
+      <c r="D26" s="14" t="s">
+        <v>861</v>
       </c>
     </row>
     <row r="27" spans="2:4">
@@ -16727,7 +16824,7 @@
         <v>69</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="8" t="s">
         <v>694</v>
       </c>
     </row>
@@ -16735,15 +16832,15 @@
       <c r="B28" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>745</v>
+      <c r="D28" s="9" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="7" t="s">
         <v>695</v>
       </c>
     </row>
@@ -16776,7 +16873,7 @@
         <v>75</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="34" spans="2:4">
@@ -16784,7 +16881,7 @@
         <v>3</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="35" spans="2:4">
@@ -16825,7 +16922,7 @@
         <v>8</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="40" spans="2:4">
@@ -16931,7 +17028,7 @@
         <v>653</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="53" spans="2:4">
@@ -17157,7 +17254,7 @@
         <v>62</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="13" spans="2:4">
@@ -17165,7 +17262,7 @@
         <v>609</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="14" spans="2:4">
@@ -17173,7 +17270,7 @@
         <v>64</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="15" spans="2:4">
@@ -17181,7 +17278,7 @@
         <v>65</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="16" spans="2:4">
@@ -17215,7 +17312,7 @@
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="2" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="20" spans="2:4">
@@ -17223,7 +17320,7 @@
         <v>70</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="21" spans="2:4">
@@ -17231,7 +17328,7 @@
         <v>71</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="22" spans="2:4">
@@ -17239,7 +17336,7 @@
         <v>72</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="23" spans="2:4">
@@ -17271,7 +17368,7 @@
         <v>3</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="27" spans="2:4">
@@ -17279,7 +17376,7 @@
         <v>4</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="28" spans="2:4">
@@ -17287,7 +17384,7 @@
         <v>5</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="29" spans="2:4">
@@ -17312,7 +17409,7 @@
         <v>8</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="32" spans="2:4">
@@ -17402,7 +17499,7 @@
         <v>18</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="43" spans="2:4">
@@ -17418,7 +17515,7 @@
         <v>77</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="45" spans="2:4">
@@ -17570,8 +17667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50438EDF-6EA0-E849-8214-47C7C5FA7719}">
   <dimension ref="B2:E81"/>
   <sheetViews>
-    <sheetView zoomScale="114" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -17594,7 +17691,7 @@
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -17663,7 +17760,7 @@
       <c r="B19" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="10" t="s">
         <v>740</v>
       </c>
     </row>
@@ -17674,32 +17771,32 @@
       <c r="C20" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>741</v>
+      <c r="D20" s="7" t="s">
+        <v>864</v>
       </c>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>742</v>
+      <c r="D21" s="12" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>743</v>
+      <c r="D22" s="13" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>744</v>
+      <c r="D23" s="9" t="s">
+        <v>863</v>
       </c>
     </row>
     <row r="24" spans="2:4">
@@ -17714,8 +17811,8 @@
       <c r="B25" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>693</v>
+      <c r="D25" s="14" t="s">
+        <v>861</v>
       </c>
     </row>
     <row r="26" spans="2:4">
@@ -17723,7 +17820,7 @@
         <v>68</v>
       </c>
       <c r="C26" s="3"/>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="8" t="s">
         <v>694</v>
       </c>
     </row>
@@ -17732,15 +17829,15 @@
         <v>69</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="2" t="s">
-        <v>745</v>
+      <c r="D27" s="9" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="7" t="s">
         <v>695</v>
       </c>
     </row>
@@ -17773,7 +17870,7 @@
         <v>74</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="33" spans="2:4">
@@ -17781,7 +17878,7 @@
         <v>75</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="34" spans="2:4">
@@ -17822,7 +17919,7 @@
         <v>7</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="39" spans="2:4">
@@ -17928,7 +18025,7 @@
         <v>19</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="52" spans="2:4">
@@ -23285,7 +23382,7 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="1" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="3" spans="2:2">
@@ -24579,7 +24676,7 @@
         <v>639</v>
       </c>
       <c r="C259" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="260" spans="2:3">
@@ -25868,7 +25965,7 @@
   <dimension ref="B2:E77"/>
   <sheetViews>
     <sheetView zoomScale="114" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -25884,7 +25981,7 @@
         <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="3" spans="2:5">
@@ -25918,7 +26015,7 @@
         <v>124</v>
       </c>
       <c r="E8" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -25932,7 +26029,7 @@
         <v>126</v>
       </c>
       <c r="E9" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="10" spans="2:5">
@@ -25943,10 +26040,10 @@
         <v>629</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="E10" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -25960,7 +26057,7 @@
         <v>128</v>
       </c>
       <c r="E11" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -26006,7 +26103,7 @@
         <v>62</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="19" spans="2:4">
@@ -26014,7 +26111,7 @@
         <v>609</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="20" spans="2:4">
@@ -26064,7 +26161,7 @@
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="2" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="26" spans="2:4">
@@ -26072,7 +26169,7 @@
         <v>70</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="27" spans="2:4">
@@ -26080,7 +26177,7 @@
         <v>71</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="28" spans="2:4">
@@ -26088,7 +26185,7 @@
         <v>72</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="29" spans="2:4">
@@ -26120,7 +26217,7 @@
         <v>3</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="33" spans="2:4">
@@ -26128,7 +26225,7 @@
         <v>4</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="34" spans="2:4">
@@ -26136,7 +26233,7 @@
         <v>5</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="35" spans="2:4">
@@ -26161,7 +26258,7 @@
         <v>8</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="38" spans="2:4">
@@ -26439,12 +26536,12 @@
     </row>
     <row r="3" spans="2:5">
       <c r="B3" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -26506,7 +26603,7 @@
         <v>62</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -26514,7 +26611,7 @@
         <v>609</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="19" spans="2:4">
@@ -26564,7 +26661,7 @@
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="2" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="25" spans="2:4">
@@ -26572,7 +26669,7 @@
         <v>70</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="26" spans="2:4">
@@ -26580,7 +26677,7 @@
         <v>71</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="27" spans="2:4">
@@ -26588,7 +26685,7 @@
         <v>72</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="28" spans="2:4">
@@ -26620,7 +26717,7 @@
         <v>3</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="32" spans="2:4">
@@ -26628,7 +26725,7 @@
         <v>4</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="33" spans="2:4">
@@ -26661,7 +26758,7 @@
         <v>8</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="37" spans="2:4">
@@ -26767,7 +26864,7 @@
         <v>77</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="50" spans="2:4">
@@ -26920,7 +27017,7 @@
   <dimension ref="B2:E79"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="114" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -26977,7 +27074,7 @@
         <v>639</v>
       </c>
       <c r="E9" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="10" spans="2:5">
@@ -26988,7 +27085,7 @@
         <v>350</v>
       </c>
       <c r="E10" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -27002,7 +27099,7 @@
         <v>642</v>
       </c>
       <c r="E11" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -27016,7 +27113,7 @@
         <v>352</v>
       </c>
       <c r="E12" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="13" spans="2:5">
@@ -27072,15 +27169,15 @@
         <v>609</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>768</v>
+      <c r="D22" s="7" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="23" spans="2:4">
@@ -27088,7 +27185,7 @@
         <v>65</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="24" spans="2:4">
@@ -27096,7 +27193,7 @@
         <v>66</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="25" spans="2:4">
@@ -27122,7 +27219,7 @@
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="2" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="28" spans="2:4">
@@ -27130,7 +27227,7 @@
         <v>70</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="29" spans="2:4">
@@ -27138,7 +27235,7 @@
         <v>635</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="30" spans="2:4">
@@ -27146,7 +27243,7 @@
         <v>636</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="31" spans="2:4">
@@ -27178,7 +27275,7 @@
         <v>3</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="35" spans="2:4">
@@ -27186,7 +27283,7 @@
         <v>4</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="36" spans="2:4">
@@ -27219,7 +27316,7 @@
         <v>8</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="40" spans="2:4">
@@ -27478,8 +27575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EDDD20B-390F-8546-A6ED-4F42BC7CB991}">
   <dimension ref="B2:E79"/>
   <sheetViews>
-    <sheetView zoomScale="114" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="A4" zoomScale="114" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -27502,7 +27599,7 @@
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="2" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -27587,15 +27684,15 @@
         <v>609</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>768</v>
+      <c r="D22" s="7" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="23" spans="2:4">
@@ -27603,7 +27700,7 @@
         <v>65</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="24" spans="2:4">
@@ -27611,7 +27708,7 @@
         <v>66</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="25" spans="2:4">
@@ -27637,7 +27734,7 @@
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="2" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="28" spans="2:4">
@@ -27645,7 +27742,7 @@
         <v>70</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="29" spans="2:4">
@@ -27653,7 +27750,7 @@
         <v>635</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="30" spans="2:4">
@@ -27661,7 +27758,7 @@
         <v>636</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="31" spans="2:4">
@@ -27693,14 +27790,14 @@
         <v>3</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="7" t="s">
         <v>701</v>
       </c>
     </row>
@@ -27734,7 +27831,7 @@
         <v>8</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="40" spans="2:4">
@@ -27840,7 +27937,7 @@
         <v>637</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="53" spans="2:4">
@@ -27993,7 +28090,7 @@
   <dimension ref="B2:E79"/>
   <sheetViews>
     <sheetView zoomScale="114" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -28016,7 +28113,7 @@
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="2" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -28101,15 +28198,15 @@
         <v>609</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>768</v>
+      <c r="D22" s="7" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="23" spans="2:4">
@@ -28117,7 +28214,7 @@
         <v>65</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="24" spans="2:4">
@@ -28125,7 +28222,7 @@
         <v>66</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="25" spans="2:4">
@@ -28151,7 +28248,7 @@
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="2" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="28" spans="2:4">
@@ -28159,14 +28256,14 @@
         <v>70</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="7" t="s">
         <v>695</v>
       </c>
     </row>
@@ -28175,7 +28272,7 @@
         <v>636</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="31" spans="2:4">
@@ -28207,14 +28304,14 @@
         <v>3</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="7" t="s">
         <v>701</v>
       </c>
     </row>
@@ -28248,7 +28345,7 @@
         <v>8</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="40" spans="2:4">
@@ -28354,7 +28451,7 @@
         <v>637</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="53" spans="2:4">
